--- a/실험 결과.xlsx
+++ b/실험 결과.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SookmyungWomensUniv\Documents\Sequence-Similarity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuJeong\Documents\Sequence-Similarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8C37A5-E587-4095-B0DD-35961A90850A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19730" yWindow="770" windowWidth="18860" windowHeight="13850"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
   <si>
     <t>Origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,12 +50,32 @@
     <t>Item 수 : 10,000 (11,045)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|S| = 15 (10-20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|S| = 10 (5-15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|S| = 5 (5-15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|S| = 25 (20-30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +91,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -98,24 +122,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -141,8 +147,59 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="double">
@@ -153,8 +210,8 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="double">
         <color auto="1"/>
@@ -163,17 +220,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -184,13 +250,63 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -199,11 +315,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -212,28 +328,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,81 +695,3359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.6640625" style="3"/>
-    <col min="5" max="5" width="8.6640625" style="4"/>
-    <col min="6" max="6" width="8.6640625" style="2"/>
-    <col min="10" max="10" width="8.6640625" style="3"/>
-    <col min="11" max="11" width="8.6640625" style="4"/>
-    <col min="12" max="12" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="9.25" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9" style="13"/>
+    <col min="7" max="7" width="8.625" style="12"/>
+    <col min="8" max="8" width="8.625" style="1"/>
+    <col min="9" max="9" width="8.625" style="13"/>
+    <col min="13" max="13" width="8.625" style="12"/>
+    <col min="14" max="14" width="8.625" style="1"/>
+    <col min="15" max="15" width="8.625" style="13"/>
+    <col min="16" max="16" width="9.25" style="12" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="10"/>
+      <c r="P1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="J2" s="7"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="M2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="12"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="9" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="12"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="J5" s="10"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="14"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
+        <v>29.18985</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="5">
+        <v>18.22195</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16">
+        <v>10.367850000000001</v>
+      </c>
+      <c r="H6" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3.8894000000000002</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="16">
+        <v>29.18985</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="R6" s="17"/>
+    </row>
+    <row r="7" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>30.251100000000001</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D7">
+        <v>24.119299999999999</v>
+      </c>
+      <c r="E7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>9.4916999999999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J7">
+        <v>7.5537999999999998</v>
+      </c>
+      <c r="K7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>24.441199999999998</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>18.743400000000001</v>
+      </c>
+      <c r="E8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G8" s="12">
+        <v>7.0777999999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J8">
+        <v>3.1389</v>
+      </c>
+      <c r="K8">
+        <v>2E-3</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>30.895</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D9">
+        <v>21.153300000000002</v>
+      </c>
+      <c r="E9">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>9.2887000000000004</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J9">
+        <v>4.3978999999999999</v>
+      </c>
+      <c r="K9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>41.552500000000002</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>26.336200000000002</v>
+      </c>
+      <c r="E10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G10" s="12">
+        <v>6.5258000000000003</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J10">
+        <v>4.3288000000000002</v>
+      </c>
+      <c r="K10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M10" s="12">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>33.886899999999997</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D11">
+        <v>17.9574</v>
+      </c>
+      <c r="E11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G11" s="12">
+        <v>4.9718999999999998</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J11">
+        <v>9.5056999999999992</v>
+      </c>
+      <c r="K11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1.3189</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>38.977499999999999</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D12">
+        <v>14.9595</v>
+      </c>
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="12">
+        <v>8.0638000000000005</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J12">
+        <v>6.6938000000000004</v>
+      </c>
+      <c r="K12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>29.8325</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D13">
+        <v>15.849500000000001</v>
+      </c>
+      <c r="E13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G13" s="12">
+        <v>10.389699999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J13">
+        <v>3.8338999999999999</v>
+      </c>
+      <c r="K13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>30.427099999999999</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D14">
+        <v>16.301500000000001</v>
+      </c>
+      <c r="E14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G14" s="12">
+        <v>9.1862999999999992</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J14">
+        <v>3.1459000000000001</v>
+      </c>
+      <c r="K14">
+        <v>2E-3</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>29.947099999999999</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>19.2394</v>
+      </c>
+      <c r="E15">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G15" s="12">
+        <v>9.3207000000000004</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J15">
+        <v>6.3007999999999997</v>
+      </c>
+      <c r="K15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>32.1158</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D16">
+        <v>18.952400000000001</v>
+      </c>
+      <c r="E16">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G16" s="12">
+        <v>12.4236</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J16">
+        <v>7.7317</v>
+      </c>
+      <c r="K16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M16" s="12">
+        <v>1.8008999999999999</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>39.338999999999999</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D17">
+        <v>18.820399999999999</v>
+      </c>
+      <c r="E17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G17" s="12">
+        <v>5.5708000000000002</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J17">
+        <v>5.8158000000000003</v>
+      </c>
+      <c r="K17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M17" s="12">
+        <v>1.0809</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>33.5137</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>22.406300000000002</v>
+      </c>
+      <c r="E18">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G18" s="12">
+        <v>10.553699999999999</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J18">
+        <v>4.3379000000000003</v>
+      </c>
+      <c r="K18">
+        <v>2E-3</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>36.761299999999999</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D19">
+        <v>25.8232</v>
+      </c>
+      <c r="E19">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G19" s="12">
+        <v>6.9378000000000002</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J19">
+        <v>2.9748999999999999</v>
+      </c>
+      <c r="K19">
+        <v>2E-3</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>26.060199999999998</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D20">
+        <v>26.2302</v>
+      </c>
+      <c r="E20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G20" s="12">
+        <v>9.2746999999999993</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J20">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="K20">
+        <v>1E-3</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>24.0273</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D21">
+        <v>19.503399999999999</v>
+      </c>
+      <c r="E21">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G21" s="12">
+        <v>7.5537999999999998</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J21">
+        <v>3.0059</v>
+      </c>
+      <c r="K21">
+        <v>2E-3</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>40.803699999999999</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D22">
+        <v>15.0725</v>
+      </c>
+      <c r="E22">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="12">
+        <v>11.185600000000001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J22">
+        <v>5.7179000000000002</v>
+      </c>
+      <c r="K22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M22" s="12">
+        <v>1.9959</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>30.7241</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D23">
+        <v>22.049299999999999</v>
+      </c>
+      <c r="E23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G23" s="12">
+        <v>11.041700000000001</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J23">
+        <v>1.7748999999999999</v>
+      </c>
+      <c r="K23">
+        <v>1E-3</v>
+      </c>
+      <c r="M23" s="12">
+        <v>1.0159</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D24">
+        <v>22.304300000000001</v>
+      </c>
+      <c r="E24">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G24" s="12">
+        <v>11.9536</v>
+      </c>
+      <c r="H24" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J24">
+        <v>2.8249</v>
+      </c>
+      <c r="K24">
+        <v>2E-3</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>22.465299999999999</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D25">
+        <v>16.183499999999999</v>
+      </c>
+      <c r="E25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G25" s="12">
+        <v>7.2538</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J25">
+        <v>3.8359000000000001</v>
+      </c>
+      <c r="K25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M25" s="12">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>32.978999999999999</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D26">
+        <v>22.976299999999998</v>
+      </c>
+      <c r="E26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>13.195600000000001</v>
+      </c>
+      <c r="H26" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J26">
+        <v>5.4419000000000004</v>
+      </c>
+      <c r="K26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M26" s="12">
+        <v>1.9699</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>24.594200000000001</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D27">
+        <v>15.849500000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.01</v>
+      </c>
+      <c r="G27" s="12">
+        <v>16.636500000000002</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J27">
+        <v>8.2507000000000001</v>
+      </c>
+      <c r="K27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M27" s="12">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>26.231200000000001</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>22.0623</v>
+      </c>
+      <c r="E28">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G28" s="12">
+        <v>8.6387</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J28">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="K28">
+        <v>1E-3</v>
+      </c>
+      <c r="M28" s="12">
+        <v>1.3549</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>37.473799999999997</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D29">
+        <v>28.699100000000001</v>
+      </c>
+      <c r="E29">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>8.8087</v>
+      </c>
+      <c r="H29" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J29">
+        <v>2.7679</v>
+      </c>
+      <c r="K29">
+        <v>2E-3</v>
+      </c>
+      <c r="M29" s="12">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>36.4499</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D30">
+        <v>22.722300000000001</v>
+      </c>
+      <c r="E30">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G30" s="12">
+        <v>7.8268000000000004</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J30">
+        <v>2.7299000000000002</v>
+      </c>
+      <c r="K30">
+        <v>2E-3</v>
+      </c>
+      <c r="M30" s="12">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>27.412600000000001</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D31">
+        <v>22.013300000000001</v>
+      </c>
+      <c r="E31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G31" s="12">
+        <v>11.4176</v>
+      </c>
+      <c r="H31" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J31">
+        <v>6.8967999999999998</v>
+      </c>
+      <c r="K31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M31" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>28.284099999999999</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D32">
+        <v>27.514199999999999</v>
+      </c>
+      <c r="E32">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G32" s="12">
+        <v>11.7347</v>
+      </c>
+      <c r="H32" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J32">
+        <v>3.6518999999999999</v>
+      </c>
+      <c r="K32">
+        <v>2E-3</v>
+      </c>
+      <c r="M32" s="12">
+        <v>1.218</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>25.2942</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D33">
+        <v>15.298500000000001</v>
+      </c>
+      <c r="E33">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G33" s="12">
+        <v>5.6787999999999998</v>
+      </c>
+      <c r="H33" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J33">
+        <v>4.9198000000000004</v>
+      </c>
+      <c r="K33">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M33" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>40.339799999999997</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D34">
+        <v>12.316599999999999</v>
+      </c>
+      <c r="E34">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G34" s="12">
+        <v>6.2018000000000004</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J34">
+        <v>4.9598000000000004</v>
+      </c>
+      <c r="K34">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M34" s="12">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>29.268699999999999</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D35">
+        <v>23.1523</v>
+      </c>
+      <c r="E35">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G35" s="12">
+        <v>8.5907</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J35">
+        <v>3.1579000000000002</v>
+      </c>
+      <c r="K35">
+        <v>2E-3</v>
+      </c>
+      <c r="M35" s="12">
+        <v>1.9089</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>27.9392</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D36">
+        <v>19.141400000000001</v>
+      </c>
+      <c r="E36">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G36" s="12">
+        <v>9.3687000000000005</v>
+      </c>
+      <c r="H36" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J36">
+        <v>3.9209000000000001</v>
+      </c>
+      <c r="K36">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M36" s="12">
+        <v>1.2939000000000001</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>30.232099999999999</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>24.118300000000001</v>
+      </c>
+      <c r="E37">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G37" s="12">
+        <v>8.3308</v>
+      </c>
+      <c r="H37" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J37">
+        <v>5.3128000000000002</v>
+      </c>
+      <c r="K37">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M37" s="12">
+        <v>1.1769000000000001</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>23.3033</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D38">
+        <v>19.656400000000001</v>
+      </c>
+      <c r="E38">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G38" s="12">
+        <v>7.1238000000000001</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J38">
+        <v>3.7818999999999998</v>
+      </c>
+      <c r="K38">
+        <v>2E-3</v>
+      </c>
+      <c r="M38" s="12">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>23.937100000000001</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D39">
+        <v>18.130500000000001</v>
+      </c>
+      <c r="E39">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G39" s="12">
+        <v>8.0387000000000004</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J39">
+        <v>2.9689000000000001</v>
+      </c>
+      <c r="K39">
+        <v>2E-3</v>
+      </c>
+      <c r="M39" s="12">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>19.853400000000001</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D40">
+        <v>20.100300000000001</v>
+      </c>
+      <c r="E40">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G40" s="12">
+        <v>13.694599999999999</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J40">
+        <v>1.9888999999999999</v>
+      </c>
+      <c r="K40">
+        <v>1E-3</v>
+      </c>
+      <c r="M40" s="12">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>32.341999999999999</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D41">
+        <v>28.140699999999999</v>
+      </c>
+      <c r="E41">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G41" s="12">
+        <v>16.9085</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J41">
+        <v>7.0027999999999997</v>
+      </c>
+      <c r="K41">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M41" s="12">
+        <v>1.046</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>27.682099999999998</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D42">
+        <v>14.855600000000001</v>
+      </c>
+      <c r="E42">
+        <v>0.01</v>
+      </c>
+      <c r="G42" s="12">
+        <v>17.026499999999999</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J42">
+        <v>2.34</v>
+      </c>
+      <c r="K42">
+        <v>1E-3</v>
+      </c>
+      <c r="M42" s="12">
+        <v>0.78190000000000004</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>36.872599999999998</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D43">
+        <v>15.7065</v>
+      </c>
+      <c r="E43">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G43" s="12">
+        <v>10.573700000000001</v>
+      </c>
+      <c r="H43" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J43">
+        <v>5.2538</v>
+      </c>
+      <c r="K43">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M43" s="12">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>33.441000000000003</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D44">
+        <v>17.486499999999999</v>
+      </c>
+      <c r="E44">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G44" s="12">
+        <v>11.0107</v>
+      </c>
+      <c r="H44" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J44">
+        <v>6.1208</v>
+      </c>
+      <c r="K44">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M44" s="12">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>27.389099999999999</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D45">
+        <v>14.169499999999999</v>
+      </c>
+      <c r="E45">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G45" s="12">
+        <v>8.8367000000000004</v>
+      </c>
+      <c r="H45" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J45">
+        <v>4.6327999999999996</v>
+      </c>
+      <c r="K45">
+        <v>0.01</v>
+      </c>
+      <c r="M45" s="12">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>33.003599999999999</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D46">
+        <v>18.313400000000001</v>
+      </c>
+      <c r="E46">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G46" s="12">
+        <v>11.0686</v>
+      </c>
+      <c r="H46" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J46">
+        <v>4.9298000000000002</v>
+      </c>
+      <c r="K46">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M46" s="12">
+        <v>1.1939</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>39.094499999999996</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D47">
+        <v>12.1386</v>
+      </c>
+      <c r="E47">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G47" s="12">
+        <v>9.7727000000000004</v>
+      </c>
+      <c r="H47" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J47">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="K47">
+        <v>1E-3</v>
+      </c>
+      <c r="M47" s="12">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>41.615699999999997</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D48">
+        <v>20.4343</v>
+      </c>
+      <c r="E48">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G48" s="12">
+        <v>11.9726</v>
+      </c>
+      <c r="H48" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J48">
+        <v>7.3608000000000002</v>
+      </c>
+      <c r="K48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M48" s="12">
+        <v>1.0689</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>27.214200000000002</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D49">
+        <v>14.737500000000001</v>
+      </c>
+      <c r="E49">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G49" s="12">
+        <v>5.5827999999999998</v>
+      </c>
+      <c r="H49" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J49">
+        <v>6.4518000000000004</v>
+      </c>
+      <c r="K49">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M49" s="12">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>39.7059</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D50">
+        <v>16.683499999999999</v>
+      </c>
+      <c r="E50">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G50" s="12">
+        <v>9.4837000000000007</v>
+      </c>
+      <c r="H50" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J50">
+        <v>6.9988000000000001</v>
+      </c>
+      <c r="K50">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M50" s="12">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>34.4099</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D51">
+        <v>12.7126</v>
+      </c>
+      <c r="E51">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G51" s="12">
+        <v>7.8186999999999998</v>
+      </c>
+      <c r="H51" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J51">
+        <v>2.4108999999999998</v>
+      </c>
+      <c r="K51">
+        <v>1E-3</v>
+      </c>
+      <c r="M51" s="12">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="N51" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>28.4665</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D52">
+        <v>14.8195</v>
+      </c>
+      <c r="E52">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G52" s="12">
+        <v>10.346</v>
+      </c>
+      <c r="H52" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J52">
+        <v>3.4939</v>
+      </c>
+      <c r="K52">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M52" s="12">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <v>29.639099999999999</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D53">
+        <v>15.483499999999999</v>
+      </c>
+      <c r="E53">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G53" s="12">
+        <v>6.9017999999999997</v>
+      </c>
+      <c r="H53" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J53">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="K53">
+        <v>1E-3</v>
+      </c>
+      <c r="M53" s="12">
+        <v>0.80589999999999995</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>31.317</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D54">
+        <v>12.720599999999999</v>
+      </c>
+      <c r="E54">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G54" s="12">
+        <v>11.9696</v>
+      </c>
+      <c r="H54" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J54">
+        <v>5.0477999999999996</v>
+      </c>
+      <c r="K54">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M54" s="12">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <v>25.353200000000001</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D55">
+        <v>15.5585</v>
+      </c>
+      <c r="E55">
+        <v>0.01</v>
+      </c>
+      <c r="G55" s="12">
+        <v>11.220599999999999</v>
+      </c>
+      <c r="H55" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J55">
+        <v>2.5078999999999998</v>
+      </c>
+      <c r="K55">
+        <v>2E-3</v>
+      </c>
+      <c r="M55" s="12">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <v>34.488799999999998</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D56">
+        <v>18.369399999999999</v>
+      </c>
+      <c r="E56">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G56" s="12">
+        <v>9.4657</v>
+      </c>
+      <c r="H56" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J56">
+        <v>6.8028000000000004</v>
+      </c>
+      <c r="K56">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M56" s="12">
+        <v>1.5939000000000001</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
+        <v>26.373200000000001</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D57">
+        <v>23.191299999999998</v>
+      </c>
+      <c r="E57">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G57" s="12">
+        <v>13.758599999999999</v>
+      </c>
+      <c r="H57" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J57">
+        <v>3.8578999999999999</v>
+      </c>
+      <c r="K57">
+        <v>2E-3</v>
+      </c>
+      <c r="M57" s="12">
+        <v>1.085</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
+        <v>24.693200000000001</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D58">
+        <v>16.9815</v>
+      </c>
+      <c r="E58">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G58" s="12">
+        <v>10.4977</v>
+      </c>
+      <c r="H58" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J58">
+        <v>3.6749000000000001</v>
+      </c>
+      <c r="K58">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M58" s="12">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>23.726299999999998</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D59">
+        <v>18.788399999999999</v>
+      </c>
+      <c r="E59">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G59" s="12">
+        <v>7.7118000000000002</v>
+      </c>
+      <c r="H59" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J59">
+        <v>7.9977</v>
+      </c>
+      <c r="K59">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M59" s="12">
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <v>29.8691</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D60">
+        <v>19.545400000000001</v>
+      </c>
+      <c r="E60">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G60" s="12">
+        <v>12.108700000000001</v>
+      </c>
+      <c r="H60" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J60">
+        <v>3.5518999999999998</v>
+      </c>
+      <c r="K60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M60" s="12">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>29.693100000000001</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D61">
+        <v>22.008299999999998</v>
+      </c>
+      <c r="E61">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G61" s="12">
+        <v>15.702500000000001</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J61">
+        <v>2.9399000000000002</v>
+      </c>
+      <c r="K61">
+        <v>2E-3</v>
+      </c>
+      <c r="M61" s="12">
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="N61" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
+        <v>29.198599999999999</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D62">
+        <v>26.879200000000001</v>
+      </c>
+      <c r="E62">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G62" s="12">
+        <v>10.4567</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J62">
+        <v>3.3938999999999999</v>
+      </c>
+      <c r="K62">
+        <v>2E-3</v>
+      </c>
+      <c r="M62" s="12">
+        <v>0.318</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
+        <v>25.996300000000002</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D63">
+        <v>17.323499999999999</v>
+      </c>
+      <c r="E63">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G63" s="12">
+        <v>10.076700000000001</v>
+      </c>
+      <c r="H63" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J63">
+        <v>4.7058999999999997</v>
+      </c>
+      <c r="K63">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M63" s="12">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="12">
+        <v>31.404</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D64">
+        <v>21.420400000000001</v>
+      </c>
+      <c r="E64">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G64" s="12">
+        <v>12.9856</v>
+      </c>
+      <c r="H64" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J64">
+        <v>3.3929</v>
+      </c>
+      <c r="K64">
+        <v>2E-3</v>
+      </c>
+      <c r="M64" s="12">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="12">
+        <v>26.4772</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D65">
+        <v>12.1996</v>
+      </c>
+      <c r="E65">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G65" s="12">
+        <v>10.543699999999999</v>
+      </c>
+      <c r="H65" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J65">
+        <v>3.1939000000000002</v>
+      </c>
+      <c r="K65">
+        <v>2E-3</v>
+      </c>
+      <c r="M65" s="12">
+        <v>1.8758999999999999</v>
+      </c>
+      <c r="N65" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="12">
+        <v>25.1662</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D66">
+        <v>18.804400000000001</v>
+      </c>
+      <c r="E66">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G66" s="12">
+        <v>13.483599999999999</v>
+      </c>
+      <c r="H66" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J66">
+        <v>2.8618999999999999</v>
+      </c>
+      <c r="K66">
+        <v>2E-3</v>
+      </c>
+      <c r="M66" s="12">
+        <v>1.272</v>
+      </c>
+      <c r="N66" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="12">
+        <v>27.999199999999998</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D67">
+        <v>19.784400000000002</v>
+      </c>
+      <c r="E67">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G67" s="12">
+        <v>12.881600000000001</v>
+      </c>
+      <c r="H67" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J67">
+        <v>5.9778000000000002</v>
+      </c>
+      <c r="K67">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M67" s="12">
+        <v>2.5539000000000001</v>
+      </c>
+      <c r="N67" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="12">
+        <v>32.112000000000002</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D68">
+        <v>17.465399999999999</v>
+      </c>
+      <c r="E68">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G68" s="12">
+        <v>13.769600000000001</v>
+      </c>
+      <c r="H68" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J68">
+        <v>3.1669</v>
+      </c>
+      <c r="K68">
+        <v>2E-3</v>
+      </c>
+      <c r="M68" s="12">
+        <v>1.5088999999999999</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="12">
+        <v>28.612100000000002</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D69">
+        <v>13.0496</v>
+      </c>
+      <c r="E69">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G69" s="12">
+        <v>12.8706</v>
+      </c>
+      <c r="H69" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J69">
+        <v>4.0568999999999997</v>
+      </c>
+      <c r="K69">
+        <v>2E-3</v>
+      </c>
+      <c r="M69" s="12">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="N69" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="12">
+        <v>24.516200000000001</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D70">
+        <v>13.778600000000001</v>
+      </c>
+      <c r="E70">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G70" s="12">
+        <v>8.4847000000000001</v>
+      </c>
+      <c r="H70" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J70">
+        <v>3.7349000000000001</v>
+      </c>
+      <c r="K70">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M70" s="12">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="N70" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="12">
+        <v>31.026</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D71">
+        <v>16.967500000000001</v>
+      </c>
+      <c r="E71">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G71" s="12">
+        <v>13.662599999999999</v>
+      </c>
+      <c r="H71" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J71">
+        <v>2.8698999999999999</v>
+      </c>
+      <c r="K71">
+        <v>2E-3</v>
+      </c>
+      <c r="M71" s="12">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="N71" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="12">
+        <v>34.0959</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D72">
+        <v>16.433499999999999</v>
+      </c>
+      <c r="E72">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G72" s="12">
+        <v>14.512600000000001</v>
+      </c>
+      <c r="H72" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J72">
+        <v>5.5087999999999999</v>
+      </c>
+      <c r="K72">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M72" s="12">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="N72" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="12">
+        <v>26.755099999999999</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D73">
+        <v>15.589499999999999</v>
+      </c>
+      <c r="E73">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G73" s="12">
+        <v>10.4856</v>
+      </c>
+      <c r="H73" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J73">
+        <v>6.0358000000000001</v>
+      </c>
+      <c r="K73">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M73" s="12">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="N73" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="12">
+        <v>19.3294</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D74">
+        <v>19.445399999999999</v>
+      </c>
+      <c r="E74">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G74" s="12">
+        <v>11.480600000000001</v>
+      </c>
+      <c r="H74" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J74">
+        <v>5.9127999999999998</v>
+      </c>
+      <c r="K74">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M74" s="12">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="N74" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="12">
+        <v>29.761099999999999</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D75">
+        <v>19.915400000000002</v>
+      </c>
+      <c r="E75">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G75" s="12">
+        <v>8.0756999999999994</v>
+      </c>
+      <c r="H75" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J75">
+        <v>2.7658999999999998</v>
+      </c>
+      <c r="K75">
+        <v>1E-3</v>
+      </c>
+      <c r="M75" s="12">
+        <v>1.415</v>
+      </c>
+      <c r="N75" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="12">
+        <v>29.181100000000001</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D76">
+        <v>12.1736</v>
+      </c>
+      <c r="E76">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G76" s="12">
+        <v>11.7866</v>
+      </c>
+      <c r="H76" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J76">
+        <v>4.4588999999999999</v>
+      </c>
+      <c r="K76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M76" s="12">
+        <v>1.2013</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="12">
+        <v>31.995000000000001</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D77">
+        <v>15.140499999999999</v>
+      </c>
+      <c r="E77">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G77" s="12">
+        <v>6.4047999999999998</v>
+      </c>
+      <c r="H77" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J77">
+        <v>3.7368999999999999</v>
+      </c>
+      <c r="K77">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M77" s="12">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="12">
+        <v>31.956</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D78">
+        <v>19.784400000000002</v>
+      </c>
+      <c r="E78">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G78" s="12">
+        <v>13.0036</v>
+      </c>
+      <c r="H78" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J78">
+        <v>2.4178999999999999</v>
+      </c>
+      <c r="K78">
+        <v>2E-3</v>
+      </c>
+      <c r="M78" s="12">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="12">
+        <v>31.88</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D79">
+        <v>22.160299999999999</v>
+      </c>
+      <c r="E79">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G79" s="12">
+        <v>15.3955</v>
+      </c>
+      <c r="H79" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J79">
+        <v>3.5758999999999999</v>
+      </c>
+      <c r="K79">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M79" s="12">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="12">
+        <v>29.618099999999998</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D80">
+        <v>26.450199999999999</v>
+      </c>
+      <c r="E80">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G80" s="12">
+        <v>5.8167999999999997</v>
+      </c>
+      <c r="H80" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J80">
+        <v>3.5099</v>
+      </c>
+      <c r="K80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M80" s="12">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="12">
+        <v>25.6892</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D81">
+        <v>20.754300000000001</v>
+      </c>
+      <c r="E81">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G81" s="12">
+        <v>9.3796999999999997</v>
+      </c>
+      <c r="H81" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J81">
+        <v>6.3708</v>
+      </c>
+      <c r="K81">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M81" s="12">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="N81" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="12">
+        <v>29.621099999999998</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D82">
+        <v>16.240500000000001</v>
+      </c>
+      <c r="E82">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G82" s="12">
+        <v>8.8186999999999998</v>
+      </c>
+      <c r="H82" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J82">
+        <v>6.6867999999999999</v>
+      </c>
+      <c r="K82">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M82" s="12">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="12">
+        <v>20.6113</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D83">
+        <v>16.236499999999999</v>
+      </c>
+      <c r="E83">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G83" s="12">
+        <v>14.859500000000001</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J83">
+        <v>4.8617999999999997</v>
+      </c>
+      <c r="K83">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M83" s="12">
+        <v>1.8878999999999999</v>
+      </c>
+      <c r="N83" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="12">
+        <v>28.443100000000001</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D84">
+        <v>19.0044</v>
+      </c>
+      <c r="E84">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G84" s="12">
+        <v>10.230700000000001</v>
+      </c>
+      <c r="H84" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J84">
+        <v>2.6909000000000001</v>
+      </c>
+      <c r="K84">
+        <v>2E-3</v>
+      </c>
+      <c r="M84" s="12">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="12">
+        <v>38.816800000000001</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D85">
+        <v>17.1295</v>
+      </c>
+      <c r="E85">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G85" s="12">
+        <v>10.964700000000001</v>
+      </c>
+      <c r="H85" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J85">
+        <v>6.8498000000000001</v>
+      </c>
+      <c r="K85">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M85" s="12">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="12">
+        <v>24.959199999999999</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D86">
+        <v>16.2775</v>
+      </c>
+      <c r="E86">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G86" s="12">
+        <v>12.5166</v>
+      </c>
+      <c r="H86" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J86">
+        <v>4.2827999999999999</v>
+      </c>
+      <c r="K86">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M86" s="12">
+        <v>1.0448999999999999</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="12">
+        <v>22.3673</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D87">
+        <v>15.403499999999999</v>
+      </c>
+      <c r="E87">
+        <v>0.01</v>
+      </c>
+      <c r="G87" s="12">
+        <v>7.0838000000000001</v>
+      </c>
+      <c r="H87" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J87">
+        <v>5.4958</v>
+      </c>
+      <c r="K87">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M87" s="12">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="N87" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="12">
+        <v>29.760100000000001</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D88">
+        <v>22.627300000000002</v>
+      </c>
+      <c r="E88">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G88" s="12">
+        <v>10.319699999999999</v>
+      </c>
+      <c r="H88" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J88">
+        <v>5.2888000000000002</v>
+      </c>
+      <c r="K88">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M88" s="12">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="N88" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="12">
+        <v>20.346299999999999</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D89">
+        <v>16.240500000000001</v>
+      </c>
+      <c r="E89">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G89" s="12">
+        <v>12.647600000000001</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J89">
+        <v>6.4847999999999999</v>
+      </c>
+      <c r="K89">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M89" s="12">
+        <v>1.103</v>
+      </c>
+      <c r="N89" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="12">
+        <v>22.868300000000001</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D90">
+        <v>14.508599999999999</v>
+      </c>
+      <c r="E90">
+        <v>0.01</v>
+      </c>
+      <c r="G90" s="12">
+        <v>7.3658000000000001</v>
+      </c>
+      <c r="H90" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J90">
+        <v>3.5548999999999999</v>
+      </c>
+      <c r="K90">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M90" s="12">
+        <v>0.191</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="12">
+        <v>25.839200000000002</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D91">
+        <v>14.484500000000001</v>
+      </c>
+      <c r="E91">
+        <v>0.01</v>
+      </c>
+      <c r="G91" s="12">
+        <v>12.714600000000001</v>
+      </c>
+      <c r="H91" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J91">
+        <v>2.8138999999999998</v>
+      </c>
+      <c r="K91">
+        <v>2E-3</v>
+      </c>
+      <c r="M91" s="12">
+        <v>1.7069000000000001</v>
+      </c>
+      <c r="N91" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="12">
+        <v>26.5472</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D92">
+        <v>13.047599999999999</v>
+      </c>
+      <c r="E92">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G92" s="12">
+        <v>12.5846</v>
+      </c>
+      <c r="H92" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J92">
+        <v>6.8837999999999999</v>
+      </c>
+      <c r="K92">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M92" s="12">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="12">
+        <v>33.477899999999998</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D93">
+        <v>19.331399999999999</v>
+      </c>
+      <c r="E93">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G93" s="12">
+        <v>7.4387999999999996</v>
+      </c>
+      <c r="H93" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J93">
+        <v>1.9319</v>
+      </c>
+      <c r="K93">
+        <v>1E-3</v>
+      </c>
+      <c r="M93" s="12">
+        <v>2.0158999999999998</v>
+      </c>
+      <c r="N93" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="12">
+        <v>22.097300000000001</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D94">
+        <v>10.402699999999999</v>
+      </c>
+      <c r="E94">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G94" s="12">
+        <v>8.9476999999999993</v>
+      </c>
+      <c r="H94" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J94">
+        <v>4.1028000000000002</v>
+      </c>
+      <c r="K94">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M94" s="12">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="12">
+        <v>20.099399999999999</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D95">
+        <v>16.7195</v>
+      </c>
+      <c r="E95">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G95" s="12">
+        <v>12.098699999999999</v>
+      </c>
+      <c r="H95" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J95">
+        <v>3.7219000000000002</v>
+      </c>
+      <c r="K95">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M95" s="12">
+        <v>2.4899</v>
+      </c>
+      <c r="N95" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="12">
+        <v>35.982900000000001</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D96">
+        <v>15.291499999999999</v>
+      </c>
+      <c r="E96">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G96" s="12">
+        <v>8.4517000000000007</v>
+      </c>
+      <c r="H96" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J96">
+        <v>3.1368999999999998</v>
+      </c>
+      <c r="K96">
+        <v>2E-3</v>
+      </c>
+      <c r="M96" s="12">
+        <v>1.661</v>
+      </c>
+      <c r="N96" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="12">
+        <v>22.272300000000001</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D97">
+        <v>16.890499999999999</v>
+      </c>
+      <c r="E97">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G97" s="12">
+        <v>8.6117000000000008</v>
+      </c>
+      <c r="H97" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J97">
+        <v>8.8017000000000003</v>
+      </c>
+      <c r="K97">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="12">
+        <v>27.460100000000001</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D98">
+        <v>22.066299999999998</v>
+      </c>
+      <c r="E98">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G98" s="12">
+        <v>9.9297000000000004</v>
+      </c>
+      <c r="H98" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J98">
+        <v>3.5329000000000002</v>
+      </c>
+      <c r="K98">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="12">
+        <v>29.0581</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D99">
+        <v>21.305399999999999</v>
+      </c>
+      <c r="E99">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G99" s="12">
+        <v>13.7706</v>
+      </c>
+      <c r="H99" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J99">
+        <v>2.6739000000000002</v>
+      </c>
+      <c r="K99">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="12">
+        <v>24.394200000000001</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D100">
+        <v>13.726599999999999</v>
+      </c>
+      <c r="E100">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G100" s="12">
+        <v>13.1366</v>
+      </c>
+      <c r="H100" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J100">
+        <v>6.1398000000000001</v>
+      </c>
+      <c r="K100">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="12">
+        <v>23.1953</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D101">
+        <v>24.272200000000002</v>
+      </c>
+      <c r="E101">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G101" s="12">
+        <v>9.3427000000000007</v>
+      </c>
+      <c r="H101" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J101">
+        <v>7.0528000000000004</v>
+      </c>
+      <c r="K101">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="12">
+        <v>30.7041</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D102">
+        <v>12.310600000000001</v>
+      </c>
+      <c r="E102">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G102" s="12">
+        <v>11.8127</v>
+      </c>
+      <c r="H102" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J102">
+        <v>2.0419</v>
+      </c>
+      <c r="K102">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="12">
+        <v>23.6983</v>
+      </c>
+      <c r="B103" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D103">
+        <v>16.9085</v>
+      </c>
+      <c r="E103">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G103" s="12">
+        <v>10.700699999999999</v>
+      </c>
+      <c r="H103" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J103">
+        <v>4.5918999999999999</v>
+      </c>
+      <c r="K103">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="12">
+        <v>22.1633</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D104">
+        <v>14.951599999999999</v>
+      </c>
+      <c r="E104">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G104" s="12">
+        <v>6.6167999999999996</v>
+      </c>
+      <c r="H104" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J104">
+        <v>5.9988000000000001</v>
+      </c>
+      <c r="K104">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="12">
+        <v>23.914300000000001</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D105">
+        <v>21.895299999999999</v>
+      </c>
+      <c r="E105">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G105" s="12">
+        <v>12.8636</v>
+      </c>
+      <c r="H105" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J105">
+        <v>1.9479</v>
+      </c>
+      <c r="K105">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="12">
+        <v>21.231300000000001</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D106">
+        <v>18.728400000000001</v>
+      </c>
+      <c r="E106">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G106" s="12">
+        <v>16.322500000000002</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J106">
+        <v>3.4969000000000001</v>
+      </c>
+      <c r="K106">
+        <v>2E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/실험 결과.xlsx
+++ b/실험 결과.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuJeong\Documents\Sequence-Similarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8C37A5-E587-4095-B0DD-35961A90850A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16EA123-4DA0-4897-89C2-B76CD4028C3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
   <si>
     <t>Origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,12 +70,40 @@
     <t>|S| = 25 (20-30)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Tree 높이: 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item 수 : 10,000 (10,005)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree 높이: 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree 높이: 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item 수 : 10,000 (10,603)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree 높이: 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item 수 : 10,000 (10,007)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,16 +128,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -309,13 +350,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,6 +445,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R106"/>
+  <dimension ref="A1:AE106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -713,12 +808,25 @@
     <col min="13" max="13" width="8.625" style="12"/>
     <col min="14" max="14" width="8.625" style="1"/>
     <col min="15" max="15" width="8.625" style="13"/>
-    <col min="16" max="16" width="9.25" style="12" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="9" style="13"/>
+    <col min="16" max="16" width="9.25" style="29" customWidth="1"/>
+    <col min="17" max="17" width="9" style="12"/>
+    <col min="18" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="9" style="13"/>
+    <col min="20" max="20" width="9" style="12"/>
+    <col min="21" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="9" style="13"/>
+    <col min="23" max="23" width="9" style="12"/>
+    <col min="24" max="24" width="9" style="1"/>
+    <col min="25" max="25" width="9" style="13"/>
+    <col min="26" max="26" width="9" style="12"/>
+    <col min="27" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="9" style="13"/>
+    <col min="29" max="29" width="9" style="12"/>
+    <col min="30" max="30" width="9" style="1"/>
+    <col min="31" max="31" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -753,15 +861,44 @@
         <v>1</v>
       </c>
       <c r="O1" s="10"/>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="23"/>
+      <c r="T1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="23"/>
+      <c r="W1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="23"/>
+    </row>
+    <row r="2" spans="1:31" s="2" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
@@ -786,11 +923,34 @@
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="11"/>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="19"/>
+    </row>
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -809,10 +969,29 @@
         <v>2</v>
       </c>
       <c r="O3" s="13"/>
-      <c r="P3" s="12"/>
-      <c r="R3" s="13"/>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="26"/>
+      <c r="Q3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="13"/>
+      <c r="T3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="13"/>
+      <c r="W3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="13"/>
+    </row>
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -831,10 +1010,29 @@
         <v>4</v>
       </c>
       <c r="O4" s="13"/>
-      <c r="P4" s="12"/>
-      <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P4" s="26"/>
+      <c r="Q4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="13"/>
+      <c r="T4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="13"/>
+      <c r="W4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="13"/>
+    </row>
+    <row r="5" spans="1:31" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -853,10 +1051,29 @@
         <v>5</v>
       </c>
       <c r="O5" s="15"/>
-      <c r="P5" s="14"/>
-      <c r="R5" s="15"/>
-    </row>
-    <row r="6" spans="1:18" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P5" s="27"/>
+      <c r="Q5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="15"/>
+      <c r="T5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="15"/>
+      <c r="W5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE5" s="15"/>
+    </row>
+    <row r="6" spans="1:31" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>29.18985</v>
       </c>
@@ -900,15 +1117,49 @@
       <c r="O6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="16">
-        <v>29.18985</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="R6" s="17"/>
-    </row>
-    <row r="7" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="28"/>
+      <c r="Q6" s="16">
+        <v>15.769500000000001</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="16">
+        <v>14.94955</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="V6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" s="16">
+        <v>18.22195</v>
+      </c>
+      <c r="X6" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="16"/>
+      <c r="AB6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>17.683450000000001</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>30.251100000000001</v>
       </c>
@@ -939,8 +1190,32 @@
       <c r="N7" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q7" s="12">
+        <v>14.0535</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T7" s="12">
+        <v>21.288399999999999</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W7" s="12">
+        <v>24.119299999999999</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>14.1296</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>24.441199999999998</v>
       </c>
@@ -971,8 +1246,32 @@
       <c r="N8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q8" s="12">
+        <v>13.342599999999999</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T8" s="12">
+        <v>19.223400000000002</v>
+      </c>
+      <c r="U8" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="W8" s="12">
+        <v>18.743400000000001</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>11.2026</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>30.895</v>
       </c>
@@ -1003,8 +1302,32 @@
       <c r="N9" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q9" s="12">
+        <v>15.3385</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T9" s="12">
+        <v>13.955500000000001</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W9" s="12">
+        <v>21.153300000000002</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>13.852499999999999</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>41.552500000000002</v>
       </c>
@@ -1035,8 +1358,32 @@
       <c r="N10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q10" s="12">
+        <v>15.9175</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T10" s="12">
+        <v>9.0266999999999999</v>
+      </c>
+      <c r="U10" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="W10" s="12">
+        <v>26.336200000000002</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>17.703399999999998</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>33.886899999999997</v>
       </c>
@@ -1067,8 +1414,32 @@
       <c r="N11" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q11" s="12">
+        <v>16.3125</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T11" s="12">
+        <v>13.964600000000001</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W11" s="12">
+        <v>17.9574</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>23.0533</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>38.977499999999999</v>
       </c>
@@ -1099,8 +1470,32 @@
       <c r="N12" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q12" s="12">
+        <v>13.8576</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T12" s="12">
+        <v>12.9346</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W12" s="12">
+        <v>14.9595</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>21.125299999999999</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>29.8325</v>
       </c>
@@ -1131,8 +1526,32 @@
       <c r="N13" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q13" s="12">
+        <v>14.272500000000001</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T13" s="12">
+        <v>14.5875</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W13" s="12">
+        <v>15.849500000000001</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>13.9026</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>30.427099999999999</v>
       </c>
@@ -1163,8 +1582,32 @@
       <c r="N14" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q14" s="12">
+        <v>16.474499999999999</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T14" s="12">
+        <v>14.977499999999999</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W14" s="12">
+        <v>16.301500000000001</v>
+      </c>
+      <c r="X14" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>11.9116</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>29.947099999999999</v>
       </c>
@@ -1195,8 +1638,32 @@
       <c r="N15" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q15" s="12">
+        <v>21.501300000000001</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="T15" s="12">
+        <v>12.7906</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W15" s="12">
+        <v>19.2394</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>13.076599999999999</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>32.1158</v>
       </c>
@@ -1227,8 +1694,32 @@
       <c r="N16" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q16" s="12">
+        <v>18.664400000000001</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T16" s="12">
+        <v>17.0885</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="W16" s="12">
+        <v>18.952400000000001</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>22.3263</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>39.338999999999999</v>
       </c>
@@ -1259,8 +1750,32 @@
       <c r="N17" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q17" s="12">
+        <v>21.659300000000002</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T17" s="12">
+        <v>16.314499999999999</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W17" s="12">
+        <v>18.820399999999999</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>13.4406</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>33.5137</v>
       </c>
@@ -1291,8 +1806,32 @@
       <c r="N18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q18" s="12">
+        <v>14.554500000000001</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T18" s="12">
+        <v>18.177399999999999</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="W18" s="12">
+        <v>22.406300000000002</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>23.400300000000001</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>36.761299999999999</v>
       </c>
@@ -1323,8 +1862,32 @@
       <c r="N19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q19" s="12">
+        <v>12.9476</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T19" s="12">
+        <v>15.217499999999999</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W19" s="12">
+        <v>25.8232</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>21.301300000000001</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>26.060199999999998</v>
       </c>
@@ -1355,8 +1918,32 @@
       <c r="N20" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q20" s="12">
+        <v>15.4945</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T20" s="12">
+        <v>19.0304</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W20" s="12">
+        <v>26.2302</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>19.372399999999999</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>24.0273</v>
       </c>
@@ -1387,8 +1974,32 @@
       <c r="N21" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q21" s="12">
+        <v>12.4786</v>
+      </c>
+      <c r="R21" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T21" s="12">
+        <v>17.1965</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="W21" s="12">
+        <v>19.503399999999999</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC21" s="12">
+        <v>15.586499999999999</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>40.803699999999999</v>
       </c>
@@ -1419,8 +2030,32 @@
       <c r="N22" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q22" s="12">
+        <v>21.1753</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T22" s="12">
+        <v>10.8377</v>
+      </c>
+      <c r="U22" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W22" s="12">
+        <v>15.0725</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>23.395299999999999</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>30.7241</v>
       </c>
@@ -1451,8 +2086,32 @@
       <c r="N23" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q23" s="12">
+        <v>12.6456</v>
+      </c>
+      <c r="R23" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T23" s="12">
+        <v>17.625499999999999</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="W23" s="12">
+        <v>22.049299999999999</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC23" s="12">
+        <v>26.7532</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>30.824000000000002</v>
       </c>
@@ -1483,8 +2142,32 @@
       <c r="N24" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q24" s="12">
+        <v>16.837499999999999</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T24" s="12">
+        <v>13.2196</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W24" s="12">
+        <v>22.304300000000001</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>13.2986</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>22.465299999999999</v>
       </c>
@@ -1515,8 +2198,32 @@
       <c r="N25" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q25" s="12">
+        <v>19.4556</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T25" s="12">
+        <v>16.679500000000001</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W25" s="12">
+        <v>16.183499999999999</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC25" s="12">
+        <v>18.8704</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>32.978999999999999</v>
       </c>
@@ -1547,8 +2254,32 @@
       <c r="N26" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q26" s="12">
+        <v>12.285600000000001</v>
+      </c>
+      <c r="R26" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T26" s="12">
+        <v>12.804600000000001</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W26" s="12">
+        <v>22.976299999999998</v>
+      </c>
+      <c r="X26" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>17.2685</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>24.594200000000001</v>
       </c>
@@ -1579,8 +2310,32 @@
       <c r="N27" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q27" s="12">
+        <v>9.8397000000000006</v>
+      </c>
+      <c r="R27" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T27" s="12">
+        <v>21.135300000000001</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="W27" s="12">
+        <v>15.849500000000001</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AC27" s="12">
+        <v>15.061500000000001</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>26.231200000000001</v>
       </c>
@@ -1611,8 +2366,32 @@
       <c r="N28" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q28" s="12">
+        <v>13.2326</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T28" s="12">
+        <v>10.1557</v>
+      </c>
+      <c r="U28" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W28" s="12">
+        <v>22.0623</v>
+      </c>
+      <c r="X28" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AC28" s="12">
+        <v>17.5244</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>37.473799999999997</v>
       </c>
@@ -1643,8 +2422,32 @@
       <c r="N29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q29" s="12">
+        <v>11.053599999999999</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T29" s="12">
+        <v>11.967599999999999</v>
+      </c>
+      <c r="U29" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W29" s="12">
+        <v>28.699100000000001</v>
+      </c>
+      <c r="X29" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AC29" s="12">
+        <v>20.258400000000002</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>36.4499</v>
       </c>
@@ -1675,8 +2478,32 @@
       <c r="N30" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q30" s="12">
+        <v>10.297700000000001</v>
+      </c>
+      <c r="R30" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T30" s="12">
+        <v>12.7416</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W30" s="12">
+        <v>22.722300000000001</v>
+      </c>
+      <c r="X30" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AC30" s="12">
+        <v>24.310199999999998</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>27.412600000000001</v>
       </c>
@@ -1707,8 +2534,32 @@
       <c r="N31" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q31" s="12">
+        <v>16.576499999999999</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T31" s="12">
+        <v>17.265499999999999</v>
+      </c>
+      <c r="U31" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W31" s="12">
+        <v>22.013300000000001</v>
+      </c>
+      <c r="X31" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC31" s="12">
+        <v>16.983499999999999</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>28.284099999999999</v>
       </c>
@@ -1739,8 +2590,32 @@
       <c r="N32" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q32" s="12">
+        <v>12.727600000000001</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T32" s="12">
+        <v>14.5335</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W32" s="12">
+        <v>27.514199999999999</v>
+      </c>
+      <c r="X32" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AC32" s="12">
+        <v>18.962399999999999</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>25.2942</v>
       </c>
@@ -1771,8 +2646,32 @@
       <c r="N33" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q33" s="12">
+        <v>12.6496</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T33" s="12">
+        <v>14.188599999999999</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W33" s="12">
+        <v>15.298500000000001</v>
+      </c>
+      <c r="X33" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC33" s="12">
+        <v>17.549399999999999</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>40.339799999999997</v>
       </c>
@@ -1803,8 +2702,32 @@
       <c r="N34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q34" s="12">
+        <v>17.680399999999999</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T34" s="12">
+        <v>14.5335</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W34" s="12">
+        <v>12.316599999999999</v>
+      </c>
+      <c r="X34" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AC34" s="12">
+        <v>21.9893</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>29.268699999999999</v>
       </c>
@@ -1835,8 +2758,32 @@
       <c r="N35" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q35" s="12">
+        <v>20.566400000000002</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T35" s="12">
+        <v>15.647500000000001</v>
+      </c>
+      <c r="U35" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W35" s="12">
+        <v>23.1523</v>
+      </c>
+      <c r="X35" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AC35" s="12">
+        <v>11.005699999999999</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>27.9392</v>
       </c>
@@ -1867,8 +2814,32 @@
       <c r="N36" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q36" s="12">
+        <v>14.7575</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T36" s="12">
+        <v>10.1187</v>
+      </c>
+      <c r="U36" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W36" s="12">
+        <v>19.141400000000001</v>
+      </c>
+      <c r="X36" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC36" s="12">
+        <v>20.493300000000001</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>30.232099999999999</v>
       </c>
@@ -1899,8 +2870,32 @@
       <c r="N37" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q37" s="12">
+        <v>12.660600000000001</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T37" s="12">
+        <v>15.047599999999999</v>
+      </c>
+      <c r="U37" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W37" s="12">
+        <v>24.118300000000001</v>
+      </c>
+      <c r="X37" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AC37" s="12">
+        <v>16.677499999999998</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>23.3033</v>
       </c>
@@ -1931,8 +2926,32 @@
       <c r="N38" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q38" s="12">
+        <v>20.381399999999999</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T38" s="12">
+        <v>12.5296</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W38" s="12">
+        <v>19.656400000000001</v>
+      </c>
+      <c r="X38" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC38" s="12">
+        <v>16.848400000000002</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>23.937100000000001</v>
       </c>
@@ -1963,8 +2982,32 @@
       <c r="N39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q39" s="12">
+        <v>16.299499999999998</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T39" s="12">
+        <v>11.3736</v>
+      </c>
+      <c r="U39" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W39" s="12">
+        <v>18.130500000000001</v>
+      </c>
+      <c r="X39" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC39" s="12">
+        <v>19.237400000000001</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>19.853400000000001</v>
       </c>
@@ -1995,8 +3038,32 @@
       <c r="N40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q40" s="12">
+        <v>13.6496</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T40" s="12">
+        <v>18.944400000000002</v>
+      </c>
+      <c r="U40" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W40" s="12">
+        <v>20.100300000000001</v>
+      </c>
+      <c r="X40" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC40" s="12">
+        <v>19.987400000000001</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>32.341999999999999</v>
       </c>
@@ -2027,8 +3094,32 @@
       <c r="N41" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q41" s="12">
+        <v>19.862400000000001</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T41" s="12">
+        <v>14.9575</v>
+      </c>
+      <c r="U41" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W41" s="12">
+        <v>28.140699999999999</v>
+      </c>
+      <c r="X41" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AC41" s="12">
+        <v>23.337199999999999</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>27.682099999999998</v>
       </c>
@@ -2059,8 +3150,32 @@
       <c r="N42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q42" s="12">
+        <v>20.8764</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T42" s="12">
+        <v>13.131600000000001</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W42" s="12">
+        <v>14.855600000000001</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AC42" s="12">
+        <v>16.337499999999999</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>36.872599999999998</v>
       </c>
@@ -2091,8 +3206,32 @@
       <c r="N43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q43" s="12">
+        <v>13.7326</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T43" s="12">
+        <v>14.9985</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W43" s="12">
+        <v>15.7065</v>
+      </c>
+      <c r="X43" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC43" s="12">
+        <v>13.633599999999999</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>33.441000000000003</v>
       </c>
@@ -2123,8 +3262,32 @@
       <c r="N44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q44" s="12">
+        <v>11.6546</v>
+      </c>
+      <c r="R44" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T44" s="12">
+        <v>16.5425</v>
+      </c>
+      <c r="U44" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W44" s="12">
+        <v>17.486499999999999</v>
+      </c>
+      <c r="X44" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC44" s="12">
+        <v>17.663499999999999</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>27.389099999999999</v>
       </c>
@@ -2155,8 +3318,32 @@
       <c r="N45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q45" s="12">
+        <v>14.4186</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T45" s="12">
+        <v>19.898399999999999</v>
+      </c>
+      <c r="U45" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W45" s="12">
+        <v>14.169499999999999</v>
+      </c>
+      <c r="X45" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AC45" s="12">
+        <v>25.668199999999999</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>33.003599999999999</v>
       </c>
@@ -2187,8 +3374,32 @@
       <c r="N46" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q46" s="12">
+        <v>22.211300000000001</v>
+      </c>
+      <c r="R46" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T46" s="12">
+        <v>12.7376</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W46" s="12">
+        <v>18.313400000000001</v>
+      </c>
+      <c r="X46" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC46" s="12">
+        <v>19.1234</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>39.094499999999996</v>
       </c>
@@ -2219,8 +3430,32 @@
       <c r="N47" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q47" s="12">
+        <v>10.899699999999999</v>
+      </c>
+      <c r="R47" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T47" s="12">
+        <v>15.8165</v>
+      </c>
+      <c r="U47" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W47" s="12">
+        <v>12.1386</v>
+      </c>
+      <c r="X47" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AC47" s="12">
+        <v>18.791399999999999</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>41.615699999999997</v>
       </c>
@@ -2251,8 +3486,32 @@
       <c r="N48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q48" s="12">
+        <v>21.177299999999999</v>
+      </c>
+      <c r="R48" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T48" s="12">
+        <v>14.8285</v>
+      </c>
+      <c r="U48" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W48" s="12">
+        <v>20.4343</v>
+      </c>
+      <c r="X48" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC48" s="12">
+        <v>17.964400000000001</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>27.214200000000002</v>
       </c>
@@ -2283,8 +3542,32 @@
       <c r="N49" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q49" s="12">
+        <v>18.577400000000001</v>
+      </c>
+      <c r="R49" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T49" s="12">
+        <v>17.200500000000002</v>
+      </c>
+      <c r="U49" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="W49" s="12">
+        <v>14.737500000000001</v>
+      </c>
+      <c r="X49" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC49" s="12">
+        <v>20.509399999999999</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>39.7059</v>
       </c>
@@ -2315,8 +3598,32 @@
       <c r="N50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q50" s="12">
+        <v>19.010400000000001</v>
+      </c>
+      <c r="R50" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T50" s="12">
+        <v>14.945600000000001</v>
+      </c>
+      <c r="U50" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W50" s="12">
+        <v>16.683499999999999</v>
+      </c>
+      <c r="X50" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC50" s="12">
+        <v>12.7646</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>34.4099</v>
       </c>
@@ -2347,8 +3654,32 @@
       <c r="N51" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q51" s="12">
+        <v>19.241399999999999</v>
+      </c>
+      <c r="R51" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T51" s="12">
+        <v>14.608499999999999</v>
+      </c>
+      <c r="U51" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W51" s="12">
+        <v>12.7126</v>
+      </c>
+      <c r="X51" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AC51" s="12">
+        <v>12.0146</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>28.4665</v>
       </c>
@@ -2379,8 +3710,32 @@
       <c r="N52" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q52" s="12">
+        <v>15.743499999999999</v>
+      </c>
+      <c r="R52" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T52" s="12">
+        <v>15.9655</v>
+      </c>
+      <c r="U52" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W52" s="12">
+        <v>14.8195</v>
+      </c>
+      <c r="X52" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC52" s="12">
+        <v>20.613399999999999</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>29.639099999999999</v>
       </c>
@@ -2411,8 +3766,32 @@
       <c r="N53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q53" s="12">
+        <v>15.157500000000001</v>
+      </c>
+      <c r="R53" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T53" s="12">
+        <v>14.5945</v>
+      </c>
+      <c r="U53" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W53" s="12">
+        <v>15.483499999999999</v>
+      </c>
+      <c r="X53" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC53" s="12">
+        <v>17.093499999999999</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>31.317</v>
       </c>
@@ -2443,8 +3822,32 @@
       <c r="N54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q54" s="12">
+        <v>11.5886</v>
+      </c>
+      <c r="R54" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T54" s="12">
+        <v>18.1004</v>
+      </c>
+      <c r="U54" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="W54" s="12">
+        <v>12.720599999999999</v>
+      </c>
+      <c r="X54" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AC54" s="12">
+        <v>24.290199999999999</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>25.353200000000001</v>
       </c>
@@ -2475,8 +3878,32 @@
       <c r="N55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q55" s="12">
+        <v>20.956399999999999</v>
+      </c>
+      <c r="R55" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T55" s="12">
+        <v>12.538600000000001</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W55" s="12">
+        <v>15.5585</v>
+      </c>
+      <c r="X55" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AC55" s="12">
+        <v>16.7835</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>34.488799999999998</v>
       </c>
@@ -2507,8 +3934,32 @@
       <c r="N56" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q56" s="12">
+        <v>12.185600000000001</v>
+      </c>
+      <c r="R56" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T56" s="12">
+        <v>14.089600000000001</v>
+      </c>
+      <c r="U56" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W56" s="12">
+        <v>18.369399999999999</v>
+      </c>
+      <c r="X56" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC56" s="12">
+        <v>18.811399999999999</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>26.373200000000001</v>
       </c>
@@ -2539,8 +3990,32 @@
       <c r="N57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q57" s="12">
+        <v>18.554400000000001</v>
+      </c>
+      <c r="R57" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T57" s="12">
+        <v>9.8256999999999994</v>
+      </c>
+      <c r="U57" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="W57" s="12">
+        <v>23.191299999999998</v>
+      </c>
+      <c r="X57" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC57" s="12">
+        <v>12.4016</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>24.693200000000001</v>
       </c>
@@ -2571,8 +4046,32 @@
       <c r="N58" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q58" s="12">
+        <v>14.3216</v>
+      </c>
+      <c r="R58" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T58" s="12">
+        <v>14.1326</v>
+      </c>
+      <c r="U58" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W58" s="12">
+        <v>16.9815</v>
+      </c>
+      <c r="X58" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC58" s="12">
+        <v>18.231400000000001</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>23.726299999999998</v>
       </c>
@@ -2603,8 +4102,32 @@
       <c r="N59" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q59" s="12">
+        <v>16.454499999999999</v>
+      </c>
+      <c r="R59" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T59" s="12">
+        <v>12.176600000000001</v>
+      </c>
+      <c r="U59" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W59" s="12">
+        <v>18.788399999999999</v>
+      </c>
+      <c r="X59" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC59" s="12">
+        <v>13.008599999999999</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>29.8691</v>
       </c>
@@ -2635,8 +4158,32 @@
       <c r="N60" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q60" s="12">
+        <v>9.1136999999999997</v>
+      </c>
+      <c r="R60" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T60" s="12">
+        <v>10.6717</v>
+      </c>
+      <c r="U60" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W60" s="12">
+        <v>19.545400000000001</v>
+      </c>
+      <c r="X60" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AC60" s="12">
+        <v>21.767399999999999</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>29.693100000000001</v>
       </c>
@@ -2667,8 +4214,32 @@
       <c r="N61" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q61" s="12">
+        <v>18.6264</v>
+      </c>
+      <c r="R61" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T61" s="12">
+        <v>14.2576</v>
+      </c>
+      <c r="U61" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W61" s="12">
+        <v>22.008299999999998</v>
+      </c>
+      <c r="X61" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC61" s="12">
+        <v>13.5946</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>29.198599999999999</v>
       </c>
@@ -2699,8 +4270,32 @@
       <c r="N62" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q62" s="12">
+        <v>14.3146</v>
+      </c>
+      <c r="R62" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T62" s="12">
+        <v>20.978300000000001</v>
+      </c>
+      <c r="U62" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="W62" s="12">
+        <v>26.879200000000001</v>
+      </c>
+      <c r="X62" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AC62" s="12">
+        <v>16.726500000000001</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>25.996300000000002</v>
       </c>
@@ -2731,8 +4326,32 @@
       <c r="N63" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q63" s="12">
+        <v>14.2515</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T63" s="12">
+        <v>14.9535</v>
+      </c>
+      <c r="U63" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W63" s="12">
+        <v>17.323499999999999</v>
+      </c>
+      <c r="X63" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC63" s="12">
+        <v>23.383199999999999</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>31.404</v>
       </c>
@@ -2763,8 +4382,32 @@
       <c r="N64" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q64" s="12">
+        <v>17.5625</v>
+      </c>
+      <c r="R64" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T64" s="12">
+        <v>15.304500000000001</v>
+      </c>
+      <c r="U64" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W64" s="12">
+        <v>21.420400000000001</v>
+      </c>
+      <c r="X64" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AC64" s="12">
+        <v>19.116399999999999</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>26.4772</v>
       </c>
@@ -2795,8 +4438,32 @@
       <c r="N65" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q65" s="12">
+        <v>21.694299999999998</v>
+      </c>
+      <c r="R65" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="T65" s="12">
+        <v>16.2315</v>
+      </c>
+      <c r="U65" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W65" s="12">
+        <v>12.1996</v>
+      </c>
+      <c r="X65" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AC65" s="12">
+        <v>20.133299999999998</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>25.1662</v>
       </c>
@@ -2827,8 +4494,32 @@
       <c r="N66" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q66" s="12">
+        <v>17.172599999999999</v>
+      </c>
+      <c r="R66" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T66" s="12">
+        <v>16.451499999999999</v>
+      </c>
+      <c r="U66" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W66" s="12">
+        <v>18.804400000000001</v>
+      </c>
+      <c r="X66" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC66" s="12">
+        <v>20.8003</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>27.999199999999998</v>
       </c>
@@ -2859,8 +4550,32 @@
       <c r="N67" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q67" s="12">
+        <v>19.4314</v>
+      </c>
+      <c r="R67" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T67" s="12">
+        <v>19.2834</v>
+      </c>
+      <c r="U67" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W67" s="12">
+        <v>19.784400000000002</v>
+      </c>
+      <c r="X67" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AC67" s="12">
+        <v>11.6126</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>32.112000000000002</v>
       </c>
@@ -2891,8 +4606,32 @@
       <c r="N68" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q68" s="12">
+        <v>20.511299999999999</v>
+      </c>
+      <c r="R68" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T68" s="12">
+        <v>11.977600000000001</v>
+      </c>
+      <c r="U68" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W68" s="12">
+        <v>17.465399999999999</v>
+      </c>
+      <c r="X68" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC68" s="12">
+        <v>13.050599999999999</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>28.612100000000002</v>
       </c>
@@ -2923,8 +4662,32 @@
       <c r="N69" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q69" s="12">
+        <v>15.8735</v>
+      </c>
+      <c r="R69" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T69" s="12">
+        <v>13.5616</v>
+      </c>
+      <c r="U69" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W69" s="12">
+        <v>13.0496</v>
+      </c>
+      <c r="X69" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AC69" s="12">
+        <v>17.395499999999998</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>24.516200000000001</v>
       </c>
@@ -2955,8 +4718,32 @@
       <c r="N70" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q70" s="12">
+        <v>16.011500000000002</v>
+      </c>
+      <c r="R70" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T70" s="12">
+        <v>13.162599999999999</v>
+      </c>
+      <c r="U70" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W70" s="12">
+        <v>13.778600000000001</v>
+      </c>
+      <c r="X70" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AC70" s="12">
+        <v>19.116399999999999</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>31.026</v>
       </c>
@@ -2987,8 +4774,32 @@
       <c r="N71" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q71" s="12">
+        <v>16.962499999999999</v>
+      </c>
+      <c r="R71" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T71" s="12">
+        <v>16.246500000000001</v>
+      </c>
+      <c r="U71" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W71" s="12">
+        <v>16.967500000000001</v>
+      </c>
+      <c r="X71" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC71" s="12">
+        <v>13.6976</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <v>34.0959</v>
       </c>
@@ -3019,8 +4830,32 @@
       <c r="N72" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q72" s="12">
+        <v>17.7545</v>
+      </c>
+      <c r="R72" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T72" s="12">
+        <v>20.9284</v>
+      </c>
+      <c r="U72" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="W72" s="12">
+        <v>16.433499999999999</v>
+      </c>
+      <c r="X72" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC72" s="12">
+        <v>12.6586</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>26.755099999999999</v>
       </c>
@@ -3051,8 +4886,32 @@
       <c r="N73" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q73" s="12">
+        <v>14.4765</v>
+      </c>
+      <c r="R73" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T73" s="12">
+        <v>16.444500000000001</v>
+      </c>
+      <c r="U73" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W73" s="12">
+        <v>15.589499999999999</v>
+      </c>
+      <c r="X73" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC73" s="12">
+        <v>16.479500000000002</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>19.3294</v>
       </c>
@@ -3083,8 +4942,32 @@
       <c r="N74" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q74" s="12">
+        <v>17.051500000000001</v>
+      </c>
+      <c r="R74" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T74" s="12">
+        <v>17.820399999999999</v>
+      </c>
+      <c r="U74" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="W74" s="12">
+        <v>19.445399999999999</v>
+      </c>
+      <c r="X74" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC74" s="12">
+        <v>15.0215</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <v>29.761099999999999</v>
       </c>
@@ -3115,8 +4998,32 @@
       <c r="N75" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q75" s="12">
+        <v>11.958600000000001</v>
+      </c>
+      <c r="R75" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T75" s="12">
+        <v>13.9826</v>
+      </c>
+      <c r="U75" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W75" s="12">
+        <v>19.915400000000002</v>
+      </c>
+      <c r="X75" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC75" s="12">
+        <v>13.9696</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
         <v>29.181100000000001</v>
       </c>
@@ -3147,8 +5054,32 @@
       <c r="N76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q76" s="12">
+        <v>16.401499999999999</v>
+      </c>
+      <c r="R76" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T76" s="12">
+        <v>15.708500000000001</v>
+      </c>
+      <c r="U76" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W76" s="12">
+        <v>12.1736</v>
+      </c>
+      <c r="X76" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AC76" s="12">
+        <v>16.4285</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
         <v>31.995000000000001</v>
       </c>
@@ -3179,8 +5110,32 @@
       <c r="N77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q77" s="12">
+        <v>15.795500000000001</v>
+      </c>
+      <c r="R77" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T77" s="12">
+        <v>15.4255</v>
+      </c>
+      <c r="U77" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W77" s="12">
+        <v>15.140499999999999</v>
+      </c>
+      <c r="X77" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC77" s="12">
+        <v>15.7925</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>31.956</v>
       </c>
@@ -3211,8 +5166,32 @@
       <c r="N78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q78" s="12">
+        <v>12.9916</v>
+      </c>
+      <c r="R78" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T78" s="12">
+        <v>18.973400000000002</v>
+      </c>
+      <c r="U78" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W78" s="12">
+        <v>19.784400000000002</v>
+      </c>
+      <c r="X78" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC78" s="12">
+        <v>22.241299999999999</v>
+      </c>
+      <c r="AD78" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>31.88</v>
       </c>
@@ -3243,8 +5222,32 @@
       <c r="N79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q79" s="12">
+        <v>16.6145</v>
+      </c>
+      <c r="R79" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T79" s="12">
+        <v>17.218499999999999</v>
+      </c>
+      <c r="U79" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W79" s="12">
+        <v>22.160299999999999</v>
+      </c>
+      <c r="X79" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC79" s="12">
+        <v>20.343299999999999</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>29.618099999999998</v>
       </c>
@@ -3275,8 +5278,32 @@
       <c r="N80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q80" s="12">
+        <v>17.757400000000001</v>
+      </c>
+      <c r="R80" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T80" s="12">
+        <v>18.209399999999999</v>
+      </c>
+      <c r="U80" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W80" s="12">
+        <v>26.450199999999999</v>
+      </c>
+      <c r="X80" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AC80" s="12">
+        <v>11.6546</v>
+      </c>
+      <c r="AD80" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>25.6892</v>
       </c>
@@ -3307,8 +5334,32 @@
       <c r="N81" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q81" s="12">
+        <v>10.1797</v>
+      </c>
+      <c r="R81" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T81" s="12">
+        <v>11.851599999999999</v>
+      </c>
+      <c r="U81" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W81" s="12">
+        <v>20.754300000000001</v>
+      </c>
+      <c r="X81" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC81" s="12">
+        <v>12.285600000000001</v>
+      </c>
+      <c r="AD81" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>29.621099999999998</v>
       </c>
@@ -3339,8 +5390,32 @@
       <c r="N82" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q82" s="12">
+        <v>12.1456</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T82" s="12">
+        <v>8.8567</v>
+      </c>
+      <c r="U82" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="W82" s="12">
+        <v>16.240500000000001</v>
+      </c>
+      <c r="X82" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC82" s="12">
+        <v>16.8535</v>
+      </c>
+      <c r="AD82" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>20.6113</v>
       </c>
@@ -3371,8 +5446,32 @@
       <c r="N83" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q83" s="12">
+        <v>14.7485</v>
+      </c>
+      <c r="R83" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T83" s="12">
+        <v>15.573499999999999</v>
+      </c>
+      <c r="U83" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W83" s="12">
+        <v>16.236499999999999</v>
+      </c>
+      <c r="X83" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC83" s="12">
+        <v>18.1584</v>
+      </c>
+      <c r="AD83" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <v>28.443100000000001</v>
       </c>
@@ -3403,8 +5502,32 @@
       <c r="N84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q84" s="12">
+        <v>15.907500000000001</v>
+      </c>
+      <c r="R84" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T84" s="12">
+        <v>15.560499999999999</v>
+      </c>
+      <c r="U84" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W84" s="12">
+        <v>19.0044</v>
+      </c>
+      <c r="X84" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC84" s="12">
+        <v>15.6615</v>
+      </c>
+      <c r="AD84" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <v>38.816800000000001</v>
       </c>
@@ -3435,8 +5558,32 @@
       <c r="N85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q85" s="12">
+        <v>13.935600000000001</v>
+      </c>
+      <c r="R85" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T85" s="12">
+        <v>15.7865</v>
+      </c>
+      <c r="U85" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="W85" s="12">
+        <v>17.1295</v>
+      </c>
+      <c r="X85" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC85" s="12">
+        <v>15.336499999999999</v>
+      </c>
+      <c r="AD85" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>24.959199999999999</v>
       </c>
@@ -3467,8 +5614,32 @@
       <c r="N86" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q86" s="12">
+        <v>19.510400000000001</v>
+      </c>
+      <c r="R86" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T86" s="12">
+        <v>14.5855</v>
+      </c>
+      <c r="U86" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W86" s="12">
+        <v>16.2775</v>
+      </c>
+      <c r="X86" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC86" s="12">
+        <v>20.112400000000001</v>
+      </c>
+      <c r="AD86" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>22.3673</v>
       </c>
@@ -3499,8 +5670,32 @@
       <c r="N87" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q87" s="12">
+        <v>10.6067</v>
+      </c>
+      <c r="R87" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="T87" s="12">
+        <v>13.5276</v>
+      </c>
+      <c r="U87" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W87" s="12">
+        <v>15.403499999999999</v>
+      </c>
+      <c r="X87" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AC87" s="12">
+        <v>12.400600000000001</v>
+      </c>
+      <c r="AD87" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>29.760100000000001</v>
       </c>
@@ -3531,8 +5726,32 @@
       <c r="N88" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q88" s="12">
+        <v>11.104699999999999</v>
+      </c>
+      <c r="R88" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T88" s="12">
+        <v>13.519600000000001</v>
+      </c>
+      <c r="U88" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W88" s="12">
+        <v>22.627300000000002</v>
+      </c>
+      <c r="X88" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AC88" s="12">
+        <v>23.4833</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>20.346299999999999</v>
       </c>
@@ -3563,8 +5782,32 @@
       <c r="N89" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q89" s="12">
+        <v>12.5806</v>
+      </c>
+      <c r="R89" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T89" s="12">
+        <v>10.8956</v>
+      </c>
+      <c r="U89" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W89" s="12">
+        <v>16.240500000000001</v>
+      </c>
+      <c r="X89" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC89" s="12">
+        <v>14.085599999999999</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
         <v>22.868300000000001</v>
       </c>
@@ -3595,8 +5838,32 @@
       <c r="N90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q90" s="12">
+        <v>16.5105</v>
+      </c>
+      <c r="R90" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T90" s="12">
+        <v>18.941400000000002</v>
+      </c>
+      <c r="U90" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W90" s="12">
+        <v>14.508599999999999</v>
+      </c>
+      <c r="X90" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AC90" s="12">
+        <v>15.1465</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>25.839200000000002</v>
       </c>
@@ -3627,8 +5894,32 @@
       <c r="N91" s="1">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q91" s="12">
+        <v>15.564500000000001</v>
+      </c>
+      <c r="R91" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T91" s="12">
+        <v>14.377599999999999</v>
+      </c>
+      <c r="U91" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W91" s="12">
+        <v>14.484500000000001</v>
+      </c>
+      <c r="X91" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AC91" s="12">
+        <v>23.313300000000002</v>
+      </c>
+      <c r="AD91" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>26.5472</v>
       </c>
@@ -3659,8 +5950,32 @@
       <c r="N92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q92" s="12">
+        <v>15.156599999999999</v>
+      </c>
+      <c r="R92" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T92" s="12">
+        <v>13.0296</v>
+      </c>
+      <c r="U92" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W92" s="12">
+        <v>13.047599999999999</v>
+      </c>
+      <c r="X92" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AC92" s="12">
+        <v>23.577200000000001</v>
+      </c>
+      <c r="AD92" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>33.477899999999998</v>
       </c>
@@ -3691,8 +6006,32 @@
       <c r="N93" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q93" s="12">
+        <v>14.3565</v>
+      </c>
+      <c r="R93" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T93" s="12">
+        <v>13.662599999999999</v>
+      </c>
+      <c r="U93" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W93" s="12">
+        <v>19.331399999999999</v>
+      </c>
+      <c r="X93" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AC93" s="12">
+        <v>15.413500000000001</v>
+      </c>
+      <c r="AD93" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>22.097300000000001</v>
       </c>
@@ -3723,8 +6062,32 @@
       <c r="N94" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q94" s="12">
+        <v>18.837399999999999</v>
+      </c>
+      <c r="R94" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T94" s="12">
+        <v>15.9405</v>
+      </c>
+      <c r="U94" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W94" s="12">
+        <v>10.402699999999999</v>
+      </c>
+      <c r="X94" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AC94" s="12">
+        <v>19.953399999999998</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>20.099399999999999</v>
       </c>
@@ -3755,8 +6118,32 @@
       <c r="N95" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q95" s="12">
+        <v>13.038600000000001</v>
+      </c>
+      <c r="R95" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T95" s="12">
+        <v>14.569599999999999</v>
+      </c>
+      <c r="U95" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W95" s="12">
+        <v>16.7195</v>
+      </c>
+      <c r="X95" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC95" s="12">
+        <v>18.642399999999999</v>
+      </c>
+      <c r="AD95" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>35.982900000000001</v>
       </c>
@@ -3787,8 +6174,32 @@
       <c r="N96" s="1">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q96" s="12">
+        <v>13.3446</v>
+      </c>
+      <c r="R96" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T96" s="12">
+        <v>20.0624</v>
+      </c>
+      <c r="U96" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="W96" s="12">
+        <v>15.291499999999999</v>
+      </c>
+      <c r="X96" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AC96" s="12">
+        <v>20.299399999999999</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>22.272300000000001</v>
       </c>
@@ -3813,8 +6224,32 @@
       <c r="K97">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q97" s="12">
+        <v>17.8645</v>
+      </c>
+      <c r="R97" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T97" s="12">
+        <v>9.1816999999999993</v>
+      </c>
+      <c r="U97" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="W97" s="12">
+        <v>16.890499999999999</v>
+      </c>
+      <c r="X97" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC97" s="12">
+        <v>15.939500000000001</v>
+      </c>
+      <c r="AD97" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>27.460100000000001</v>
       </c>
@@ -3839,8 +6274,32 @@
       <c r="K98">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q98" s="12">
+        <v>11.6226</v>
+      </c>
+      <c r="R98" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T98" s="12">
+        <v>11.8796</v>
+      </c>
+      <c r="U98" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W98" s="12">
+        <v>22.066299999999998</v>
+      </c>
+      <c r="X98" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC98" s="12">
+        <v>26.6082</v>
+      </c>
+      <c r="AD98" s="1">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>29.0581</v>
       </c>
@@ -3865,8 +6324,32 @@
       <c r="K99">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q99" s="12">
+        <v>21.273299999999999</v>
+      </c>
+      <c r="R99" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T99" s="12">
+        <v>19.4724</v>
+      </c>
+      <c r="U99" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W99" s="12">
+        <v>21.305399999999999</v>
+      </c>
+      <c r="X99" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC99" s="12">
+        <v>16.4755</v>
+      </c>
+      <c r="AD99" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>24.394200000000001</v>
       </c>
@@ -3891,8 +6374,32 @@
       <c r="K100">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q100" s="12">
+        <v>19.4194</v>
+      </c>
+      <c r="R100" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T100" s="12">
+        <v>11.3247</v>
+      </c>
+      <c r="U100" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W100" s="12">
+        <v>13.726599999999999</v>
+      </c>
+      <c r="X100" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AC100" s="12">
+        <v>20.282399999999999</v>
+      </c>
+      <c r="AD100" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>23.1953</v>
       </c>
@@ -3917,8 +6424,32 @@
       <c r="K101">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q101" s="12">
+        <v>13.092599999999999</v>
+      </c>
+      <c r="R101" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T101" s="12">
+        <v>12.730600000000001</v>
+      </c>
+      <c r="U101" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W101" s="12">
+        <v>24.272200000000002</v>
+      </c>
+      <c r="X101" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AC101" s="12">
+        <v>25.461200000000002</v>
+      </c>
+      <c r="AD101" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>30.7041</v>
       </c>
@@ -3943,8 +6474,32 @@
       <c r="K102">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q102" s="12">
+        <v>24.000299999999999</v>
+      </c>
+      <c r="R102" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="T102" s="12">
+        <v>15.368499999999999</v>
+      </c>
+      <c r="U102" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W102" s="12">
+        <v>12.310600000000001</v>
+      </c>
+      <c r="X102" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AC102" s="12">
+        <v>20.238399999999999</v>
+      </c>
+      <c r="AD102" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>23.6983</v>
       </c>
@@ -3969,8 +6524,32 @@
       <c r="K103">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q103" s="12">
+        <v>19.795400000000001</v>
+      </c>
+      <c r="R103" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T103" s="12">
+        <v>10.883699999999999</v>
+      </c>
+      <c r="U103" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W103" s="12">
+        <v>16.9085</v>
+      </c>
+      <c r="X103" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC103" s="12">
+        <v>23.854299999999999</v>
+      </c>
+      <c r="AD103" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>22.1633</v>
       </c>
@@ -3995,8 +6574,32 @@
       <c r="K104">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q104" s="12">
+        <v>17.426500000000001</v>
+      </c>
+      <c r="R104" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T104" s="12">
+        <v>18.539400000000001</v>
+      </c>
+      <c r="U104" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="W104" s="12">
+        <v>14.951599999999999</v>
+      </c>
+      <c r="X104" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AC104" s="12">
+        <v>18.407399999999999</v>
+      </c>
+      <c r="AD104" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>23.914300000000001</v>
       </c>
@@ -4021,8 +6624,32 @@
       <c r="K105">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q105" s="12">
+        <v>17.515499999999999</v>
+      </c>
+      <c r="R105" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T105" s="12">
+        <v>19.750399999999999</v>
+      </c>
+      <c r="U105" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="W105" s="12">
+        <v>21.895299999999999</v>
+      </c>
+      <c r="X105" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC105" s="12">
+        <v>12.024699999999999</v>
+      </c>
+      <c r="AD105" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <v>21.231300000000001</v>
       </c>
@@ -4046,6 +6673,30 @@
       </c>
       <c r="K106">
         <v>2E-3</v>
+      </c>
+      <c r="Q106" s="12">
+        <v>13.957599999999999</v>
+      </c>
+      <c r="R106" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="T106" s="12">
+        <v>22.9603</v>
+      </c>
+      <c r="U106" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="W106" s="12">
+        <v>18.728400000000001</v>
+      </c>
+      <c r="X106" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC106" s="12">
+        <v>19.534400000000002</v>
+      </c>
+      <c r="AD106" s="1">
+        <v>1.4E-2</v>
       </c>
     </row>
   </sheetData>

--- a/실험 결과.xlsx
+++ b/실험 결과.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuJeong\Documents\Sequence-Similarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16EA123-4DA0-4897-89C2-B76CD4028C3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC852045-3A99-43BF-BE52-0281223C23D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE106"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -824,9 +824,10 @@
     <col min="29" max="29" width="9" style="12"/>
     <col min="30" max="30" width="9" style="1"/>
     <col min="31" max="31" width="9" style="13"/>
+    <col min="32" max="32" width="9.25" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -897,8 +898,9 @@
         <v>1</v>
       </c>
       <c r="AE1" s="23"/>
-    </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AF1" s="24"/>
+    </row>
+    <row r="2" spans="1:32" s="2" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
@@ -949,8 +951,9 @@
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="19"/>
-    </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF2" s="25"/>
+    </row>
+    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -990,8 +993,9 @@
         <v>2</v>
       </c>
       <c r="AE3" s="13"/>
-    </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF3" s="26"/>
+    </row>
+    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1031,8 +1035,9 @@
         <v>14</v>
       </c>
       <c r="AE4" s="13"/>
-    </row>
-    <row r="5" spans="1:31" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF4" s="26"/>
+    </row>
+    <row r="5" spans="1:32" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -1072,8 +1077,9 @@
         <v>15</v>
       </c>
       <c r="AE5" s="15"/>
-    </row>
-    <row r="6" spans="1:31" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF5" s="27"/>
+    </row>
+    <row r="6" spans="1:32" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>29.18985</v>
       </c>
@@ -1145,7 +1151,12 @@
       <c r="Y6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="16"/>
+      <c r="Z6" s="16">
+        <v>17.095500000000001</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>1.2E-2</v>
+      </c>
       <c r="AB6" s="17" t="s">
         <v>6</v>
       </c>
@@ -1158,8 +1169,9 @@
       <c r="AE6" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AF6" s="28"/>
+    </row>
+    <row r="7" spans="1:32" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>30.251100000000001</v>
       </c>
@@ -1208,6 +1220,12 @@
       <c r="X7" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="Z7" s="12">
+        <v>12.0646</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="AC7" s="12">
         <v>14.1296</v>
       </c>
@@ -1215,7 +1233,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>24.441199999999998</v>
       </c>
@@ -1264,6 +1282,12 @@
       <c r="X8" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="Z8" s="12">
+        <v>11.624599999999999</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="AC8" s="12">
         <v>11.2026</v>
       </c>
@@ -1271,7 +1295,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>30.895</v>
       </c>
@@ -1320,6 +1344,12 @@
       <c r="X9" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="Z9" s="12">
+        <v>15.224500000000001</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="AC9" s="12">
         <v>13.852499999999999</v>
       </c>
@@ -1327,7 +1357,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>41.552500000000002</v>
       </c>
@@ -1376,6 +1406,12 @@
       <c r="X10" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="Z10" s="12">
+        <v>22.706299999999999</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="AC10" s="12">
         <v>17.703399999999998</v>
       </c>
@@ -1383,7 +1419,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>33.886899999999997</v>
       </c>
@@ -1432,6 +1468,12 @@
       <c r="X11" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="Z11" s="12">
+        <v>11.1997</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="AC11" s="12">
         <v>23.0533</v>
       </c>
@@ -1439,7 +1481,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>38.977499999999999</v>
       </c>
@@ -1488,6 +1530,12 @@
       <c r="X12" s="1">
         <v>0.01</v>
       </c>
+      <c r="Z12" s="12">
+        <v>17.523499999999999</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>1.4E-2</v>
+      </c>
       <c r="AC12" s="12">
         <v>21.125299999999999</v>
       </c>
@@ -1495,7 +1543,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>29.8325</v>
       </c>
@@ -1544,6 +1592,12 @@
       <c r="X13" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z13" s="12">
+        <v>20.494599999999998</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1.4E-2</v>
+      </c>
       <c r="AC13" s="12">
         <v>13.9026</v>
       </c>
@@ -1551,7 +1605,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>30.427099999999999</v>
       </c>
@@ -1600,6 +1654,12 @@
       <c r="X14" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="Z14" s="12">
+        <v>18.744399999999999</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="AC14" s="12">
         <v>11.9116</v>
       </c>
@@ -1607,7 +1667,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>29.947099999999999</v>
       </c>
@@ -1656,6 +1716,12 @@
       <c r="X15" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="Z15" s="12">
+        <v>16.197500000000002</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>1.2E-2</v>
+      </c>
       <c r="AC15" s="12">
         <v>13.076599999999999</v>
       </c>
@@ -1663,7 +1729,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>32.1158</v>
       </c>
@@ -1711,6 +1777,12 @@
       </c>
       <c r="X16" s="1">
         <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>14.5205</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC16" s="12">
         <v>22.3263</v>
@@ -1768,6 +1840,12 @@
       <c r="X17" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="Z17" s="12">
+        <v>16.371400000000001</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>1.2E-2</v>
+      </c>
       <c r="AC17" s="12">
         <v>13.4406</v>
       </c>
@@ -1824,6 +1902,12 @@
       <c r="X18" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="Z18" s="12">
+        <v>22.5548</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1.6E-2</v>
+      </c>
       <c r="AC18" s="12">
         <v>23.400300000000001</v>
       </c>
@@ -1880,6 +1964,12 @@
       <c r="X19" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="Z19" s="12">
+        <v>11.2926</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="AC19" s="12">
         <v>21.301300000000001</v>
       </c>
@@ -1936,6 +2026,12 @@
       <c r="X20" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="Z20" s="12">
+        <v>22.764299999999999</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AC20" s="12">
         <v>19.372399999999999</v>
       </c>
@@ -1992,6 +2088,12 @@
       <c r="X21" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="Z21" s="12">
+        <v>15.650499999999999</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="AC21" s="12">
         <v>15.586499999999999</v>
       </c>
@@ -2048,6 +2150,12 @@
       <c r="X22" s="1">
         <v>0.01</v>
       </c>
+      <c r="Z22" s="12">
+        <v>10.9834</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="AC22" s="12">
         <v>23.395299999999999</v>
       </c>
@@ -2104,6 +2212,12 @@
       <c r="X23" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="Z23" s="12">
+        <v>23.490300000000001</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AC23" s="12">
         <v>26.7532</v>
       </c>
@@ -2160,6 +2274,12 @@
       <c r="X24" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="Z24" s="12">
+        <v>22.313400000000001</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1.4E-2</v>
+      </c>
       <c r="AC24" s="12">
         <v>13.2986</v>
       </c>
@@ -2216,6 +2336,12 @@
       <c r="X25" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z25" s="12">
+        <v>11.7006</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="AC25" s="12">
         <v>18.8704</v>
       </c>
@@ -2272,6 +2398,12 @@
       <c r="X26" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="Z26" s="12">
+        <v>20.208400000000001</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>1.4E-2</v>
+      </c>
       <c r="AC26" s="12">
         <v>17.2685</v>
       </c>
@@ -2328,6 +2460,12 @@
       <c r="X27" s="1">
         <v>0.01</v>
       </c>
+      <c r="Z27" s="12">
+        <v>12.9986</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="AC27" s="12">
         <v>15.061500000000001</v>
       </c>
@@ -2384,6 +2522,12 @@
       <c r="X28" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="Z28" s="12">
+        <v>18.138400000000001</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="AC28" s="12">
         <v>17.5244</v>
       </c>
@@ -2440,6 +2584,12 @@
       <c r="X29" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="Z29" s="12">
+        <v>26.5762</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="AC29" s="12">
         <v>20.258400000000002</v>
       </c>
@@ -2496,6 +2646,12 @@
       <c r="X30" s="1">
         <v>1.6E-2</v>
       </c>
+      <c r="Z30" s="12">
+        <v>13.7456</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC30" s="12">
         <v>24.310199999999998</v>
       </c>
@@ -2552,6 +2708,12 @@
       <c r="X31" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="Z31" s="12">
+        <v>17.151499999999999</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>1.2E-2</v>
+      </c>
       <c r="AC31" s="12">
         <v>16.983499999999999</v>
       </c>
@@ -2608,6 +2770,12 @@
       <c r="X32" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="Z32" s="12">
+        <v>25.199200000000001</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="AC32" s="12">
         <v>18.962399999999999</v>
       </c>
@@ -2664,6 +2832,12 @@
       <c r="X33" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z33" s="12">
+        <v>19.124700000000001</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="AC33" s="12">
         <v>17.549399999999999</v>
       </c>
@@ -2720,6 +2894,12 @@
       <c r="X34" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="Z34" s="12">
+        <v>18.3584</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="AC34" s="12">
         <v>21.9893</v>
       </c>
@@ -2776,6 +2956,12 @@
       <c r="X35" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="Z35" s="12">
+        <v>15.4255</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="AC35" s="12">
         <v>11.005699999999999</v>
       </c>
@@ -2832,6 +3018,12 @@
       <c r="X36" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="Z36" s="12">
+        <v>11.105700000000001</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="AC36" s="12">
         <v>20.493300000000001</v>
       </c>
@@ -2888,6 +3080,12 @@
       <c r="X37" s="1">
         <v>1.6E-2</v>
       </c>
+      <c r="Z37" s="12">
+        <v>14.6625</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC37" s="12">
         <v>16.677499999999998</v>
       </c>
@@ -2944,6 +3142,12 @@
       <c r="X38" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="Z38" s="12">
+        <v>23.671299999999999</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>1.6E-2</v>
+      </c>
       <c r="AC38" s="12">
         <v>16.848400000000002</v>
       </c>
@@ -3000,6 +3204,12 @@
       <c r="X39" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z39" s="12">
+        <v>14.012600000000001</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC39" s="12">
         <v>19.237400000000001</v>
       </c>
@@ -3056,6 +3266,12 @@
       <c r="X40" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="Z40" s="12">
+        <v>18.0154</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="AC40" s="12">
         <v>19.987400000000001</v>
       </c>
@@ -3112,6 +3328,12 @@
       <c r="X41" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
+      <c r="Z41" s="12">
+        <v>14.233499999999999</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC41" s="12">
         <v>23.337199999999999</v>
       </c>
@@ -3168,6 +3390,12 @@
       <c r="X42" s="1">
         <v>0.01</v>
       </c>
+      <c r="Z42" s="12">
+        <v>14.726599999999999</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="AC42" s="12">
         <v>16.337499999999999</v>
       </c>
@@ -3224,6 +3452,12 @@
       <c r="X43" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z43" s="12">
+        <v>20.819299999999998</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AC43" s="12">
         <v>13.633599999999999</v>
       </c>
@@ -3280,6 +3514,12 @@
       <c r="X44" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z44" s="12">
+        <v>13.599600000000001</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC44" s="12">
         <v>17.663499999999999</v>
       </c>
@@ -3336,6 +3576,12 @@
       <c r="X45" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="Z45" s="12">
+        <v>17.605499999999999</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="AC45" s="12">
         <v>25.668199999999999</v>
       </c>
@@ -3392,6 +3638,12 @@
       <c r="X46" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="Z46" s="12">
+        <v>19.3614</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>1.4E-2</v>
+      </c>
       <c r="AC46" s="12">
         <v>19.1234</v>
       </c>
@@ -3448,6 +3700,12 @@
       <c r="X47" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="Z47" s="12">
+        <v>18.7654</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>1.2E-2</v>
+      </c>
       <c r="AC47" s="12">
         <v>18.791399999999999</v>
       </c>
@@ -3504,6 +3762,12 @@
       <c r="X48" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="Z48" s="12">
+        <v>14.6065</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="AC48" s="12">
         <v>17.964400000000001</v>
       </c>
@@ -3560,6 +3824,12 @@
       <c r="X49" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z49" s="12">
+        <v>13.5236</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="AC49" s="12">
         <v>20.509399999999999</v>
       </c>
@@ -3616,6 +3886,12 @@
       <c r="X50" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="Z50" s="12">
+        <v>25.089200000000002</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="AC50" s="12">
         <v>12.7646</v>
       </c>
@@ -3672,6 +3948,12 @@
       <c r="X51" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="Z51" s="12">
+        <v>23.6708</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>1.6E-2</v>
+      </c>
       <c r="AC51" s="12">
         <v>12.0146</v>
       </c>
@@ -3728,6 +4010,12 @@
       <c r="X52" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z52" s="12">
+        <v>24.8842</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>1.6E-2</v>
+      </c>
       <c r="AC52" s="12">
         <v>20.613399999999999</v>
       </c>
@@ -3784,6 +4072,12 @@
       <c r="X53" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z53" s="12">
+        <v>22.586300000000001</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>1.6E-2</v>
+      </c>
       <c r="AC53" s="12">
         <v>17.093499999999999</v>
       </c>
@@ -3840,6 +4134,12 @@
       <c r="X54" s="1">
         <v>1.6E-2</v>
       </c>
+      <c r="Z54" s="12">
+        <v>16.287500000000001</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC54" s="12">
         <v>24.290199999999999</v>
       </c>
@@ -3896,6 +4196,12 @@
       <c r="X55" s="1">
         <v>0.01</v>
       </c>
+      <c r="Z55" s="12">
+        <v>12.082599999999999</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="AC55" s="12">
         <v>16.7835</v>
       </c>
@@ -3952,6 +4258,12 @@
       <c r="X56" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="Z56" s="12">
+        <v>18.907399999999999</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="AC56" s="12">
         <v>18.811399999999999</v>
       </c>
@@ -4008,6 +4320,12 @@
       <c r="X57" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="Z57" s="12">
+        <v>17.8855</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="AC57" s="12">
         <v>12.4016</v>
       </c>
@@ -4064,6 +4382,12 @@
       <c r="X58" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="Z58" s="12">
+        <v>19.575399999999998</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>1.2E-2</v>
+      </c>
       <c r="AC58" s="12">
         <v>18.231400000000001</v>
       </c>
@@ -4120,6 +4444,12 @@
       <c r="X59" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="Z59" s="12">
+        <v>15.1785</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC59" s="12">
         <v>13.008599999999999</v>
       </c>
@@ -4176,6 +4506,12 @@
       <c r="X60" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="Z60" s="12">
+        <v>16.005500000000001</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="AC60" s="12">
         <v>21.767399999999999</v>
       </c>
@@ -4232,6 +4568,12 @@
       <c r="X61" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="Z61" s="12">
+        <v>22.081299999999999</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>1.4E-2</v>
+      </c>
       <c r="AC61" s="12">
         <v>13.5946</v>
       </c>
@@ -4288,6 +4630,12 @@
       <c r="X62" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="Z62" s="12">
+        <v>21.109300000000001</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>1.4E-2</v>
+      </c>
       <c r="AC62" s="12">
         <v>16.726500000000001</v>
       </c>
@@ -4344,6 +4692,12 @@
       <c r="X63" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z63" s="12">
+        <v>18.188400000000001</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>1.2E-2</v>
+      </c>
       <c r="AC63" s="12">
         <v>23.383199999999999</v>
       </c>
@@ -4400,6 +4754,12 @@
       <c r="X64" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="Z64" s="12">
+        <v>19.164400000000001</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="AC64" s="12">
         <v>19.116399999999999</v>
       </c>
@@ -4456,6 +4816,12 @@
       <c r="X65" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="Z65" s="12">
+        <v>18.436399999999999</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>1.2E-2</v>
+      </c>
       <c r="AC65" s="12">
         <v>20.133299999999998</v>
       </c>
@@ -4512,6 +4878,12 @@
       <c r="X66" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="Z66" s="12">
+        <v>17.9434</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="AC66" s="12">
         <v>20.8003</v>
       </c>
@@ -4568,6 +4940,12 @@
       <c r="X67" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="Z67" s="12">
+        <v>14.4316</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC67" s="12">
         <v>11.6126</v>
       </c>
@@ -4624,6 +5002,12 @@
       <c r="X68" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="Z68" s="12">
+        <v>20.6434</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="AC68" s="12">
         <v>13.050599999999999</v>
       </c>
@@ -4680,6 +5064,12 @@
       <c r="X69" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="Z69" s="12">
+        <v>15.4285</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC69" s="12">
         <v>17.395499999999998</v>
       </c>
@@ -4736,6 +5126,12 @@
       <c r="X70" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="Z70" s="12">
+        <v>14.1066</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC70" s="12">
         <v>19.116399999999999</v>
       </c>
@@ -4792,6 +5188,12 @@
       <c r="X71" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="Z71" s="12">
+        <v>16.702500000000001</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC71" s="12">
         <v>13.6976</v>
       </c>
@@ -4848,6 +5250,12 @@
       <c r="X72" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z72" s="12">
+        <v>15.8005</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC72" s="12">
         <v>12.6586</v>
       </c>
@@ -4904,6 +5312,12 @@
       <c r="X73" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z73" s="12">
+        <v>18.910699999999999</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>1.2E-2</v>
+      </c>
       <c r="AC73" s="12">
         <v>16.479500000000002</v>
       </c>
@@ -4960,6 +5374,12 @@
       <c r="X74" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="Z74" s="12">
+        <v>18.023399999999999</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="AC74" s="12">
         <v>15.0215</v>
       </c>
@@ -5016,6 +5436,12 @@
       <c r="X75" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="Z75" s="12">
+        <v>12.9536</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="AC75" s="12">
         <v>13.9696</v>
       </c>
@@ -5072,6 +5498,12 @@
       <c r="X76" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="Z76" s="12">
+        <v>23.019300000000001</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AC76" s="12">
         <v>16.4285</v>
       </c>
@@ -5128,6 +5560,12 @@
       <c r="X77" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z77" s="12">
+        <v>26.673200000000001</v>
+      </c>
+      <c r="AA77" s="1">
+        <v>1.9E-2</v>
+      </c>
       <c r="AC77" s="12">
         <v>15.7925</v>
       </c>
@@ -5184,6 +5622,12 @@
       <c r="X78" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="Z78" s="12">
+        <v>22.436299999999999</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>1.6E-2</v>
+      </c>
       <c r="AC78" s="12">
         <v>22.241299999999999</v>
       </c>
@@ -5240,6 +5684,12 @@
       <c r="X79" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="Z79" s="12">
+        <v>14.422599999999999</v>
+      </c>
+      <c r="AA79" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="AC79" s="12">
         <v>20.343299999999999</v>
       </c>
@@ -5296,6 +5746,12 @@
       <c r="X80" s="1">
         <v>1.9E-2</v>
       </c>
+      <c r="Z80" s="12">
+        <v>22.235299999999999</v>
+      </c>
+      <c r="AA80" s="1">
+        <v>1.4E-2</v>
+      </c>
       <c r="AC80" s="12">
         <v>11.6546</v>
       </c>
@@ -5352,6 +5808,12 @@
       <c r="X81" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="Z81" s="12">
+        <v>18.433399999999999</v>
+      </c>
+      <c r="AA81" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="AC81" s="12">
         <v>12.285600000000001</v>
       </c>
@@ -5408,6 +5870,12 @@
       <c r="X82" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z82" s="12">
+        <v>18.702400000000001</v>
+      </c>
+      <c r="AA82" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="AC82" s="12">
         <v>16.8535</v>
       </c>
@@ -5464,6 +5932,12 @@
       <c r="X83" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z83" s="12">
+        <v>19.688400000000001</v>
+      </c>
+      <c r="AA83" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="AC83" s="12">
         <v>18.1584</v>
       </c>
@@ -5520,6 +5994,12 @@
       <c r="X84" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="Z84" s="12">
+        <v>17.0395</v>
+      </c>
+      <c r="AA84" s="1">
+        <v>1.2E-2</v>
+      </c>
       <c r="AC84" s="12">
         <v>15.6615</v>
       </c>
@@ -5576,6 +6056,12 @@
       <c r="X85" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="Z85" s="12">
+        <v>20.333400000000001</v>
+      </c>
+      <c r="AA85" s="1">
+        <v>1.4E-2</v>
+      </c>
       <c r="AC85" s="12">
         <v>15.336499999999999</v>
       </c>
@@ -5632,6 +6118,12 @@
       <c r="X86" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z86" s="12">
+        <v>14.7928</v>
+      </c>
+      <c r="AA86" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC86" s="12">
         <v>20.112400000000001</v>
       </c>
@@ -5688,6 +6180,12 @@
       <c r="X87" s="1">
         <v>0.01</v>
       </c>
+      <c r="Z87" s="12">
+        <v>14.5966</v>
+      </c>
+      <c r="AA87" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC87" s="12">
         <v>12.400600000000001</v>
       </c>
@@ -5744,6 +6242,12 @@
       <c r="X88" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="Z88" s="12">
+        <v>14.0336</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC88" s="12">
         <v>23.4833</v>
       </c>
@@ -5800,6 +6304,12 @@
       <c r="X89" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="Z89" s="12">
+        <v>12.3216</v>
+      </c>
+      <c r="AA89" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="AC89" s="12">
         <v>14.085599999999999</v>
       </c>
@@ -5856,6 +6366,12 @@
       <c r="X90" s="1">
         <v>0.01</v>
       </c>
+      <c r="Z90" s="12">
+        <v>16.747499999999999</v>
+      </c>
+      <c r="AA90" s="1">
+        <v>1.2E-2</v>
+      </c>
       <c r="AC90" s="12">
         <v>15.1465</v>
       </c>
@@ -5912,6 +6428,12 @@
       <c r="X91" s="1">
         <v>0.01</v>
       </c>
+      <c r="Z91" s="12">
+        <v>15.371499999999999</v>
+      </c>
+      <c r="AA91" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="AC91" s="12">
         <v>23.313300000000002</v>
       </c>
@@ -5968,6 +6490,12 @@
       <c r="X92" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="Z92" s="12">
+        <v>20.343399999999999</v>
+      </c>
+      <c r="AA92" s="1">
+        <v>1.4E-2</v>
+      </c>
       <c r="AC92" s="12">
         <v>23.577200000000001</v>
       </c>
@@ -6024,6 +6552,12 @@
       <c r="X93" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="Z93" s="12">
+        <v>10.7006</v>
+      </c>
+      <c r="AA93" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="AC93" s="12">
         <v>15.413500000000001</v>
       </c>
@@ -6080,6 +6614,12 @@
       <c r="X94" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="Z94" s="12">
+        <v>19.7334</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AC94" s="12">
         <v>19.953399999999998</v>
       </c>
@@ -6136,6 +6676,12 @@
       <c r="X95" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="Z95" s="12">
+        <v>15.695499999999999</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="AC95" s="12">
         <v>18.642399999999999</v>
       </c>
@@ -6192,6 +6738,12 @@
       <c r="X96" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="Z96" s="12">
+        <v>9.9466999999999999</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="AC96" s="12">
         <v>20.299399999999999</v>
       </c>
@@ -6242,6 +6794,12 @@
       <c r="X97" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z97" s="12">
+        <v>15.8485</v>
+      </c>
+      <c r="AA97" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
       <c r="AC97" s="12">
         <v>15.939500000000001</v>
       </c>
@@ -6292,6 +6850,12 @@
       <c r="X98" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="Z98" s="12">
+        <v>14.182600000000001</v>
+      </c>
+      <c r="AA98" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC98" s="12">
         <v>26.6082</v>
       </c>
@@ -6342,6 +6906,12 @@
       <c r="X99" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="Z99" s="12">
+        <v>23.0383</v>
+      </c>
+      <c r="AA99" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="AC99" s="12">
         <v>16.4755</v>
       </c>
@@ -6392,6 +6962,12 @@
       <c r="X100" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="Z100" s="12">
+        <v>14.1915</v>
+      </c>
+      <c r="AA100" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC100" s="12">
         <v>20.282399999999999</v>
       </c>
@@ -6442,6 +7018,12 @@
       <c r="X101" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
+      <c r="Z101" s="12">
+        <v>14.3005</v>
+      </c>
+      <c r="AA101" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC101" s="12">
         <v>25.461200000000002</v>
       </c>
@@ -6492,6 +7074,12 @@
       <c r="X102" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
+      <c r="Z102" s="12">
+        <v>14.9975</v>
+      </c>
+      <c r="AA102" s="1">
+        <v>0.01</v>
+      </c>
       <c r="AC102" s="12">
         <v>20.238399999999999</v>
       </c>
@@ -6542,6 +7130,12 @@
       <c r="X103" s="1">
         <v>1.2E-2</v>
       </c>
+      <c r="Z103" s="12">
+        <v>17.368400000000001</v>
+      </c>
+      <c r="AA103" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
       <c r="AC103" s="12">
         <v>23.854299999999999</v>
       </c>
@@ -6592,6 +7186,12 @@
       <c r="X104" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Z104" s="12">
+        <v>14.237500000000001</v>
+      </c>
+      <c r="AA104" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="AC104" s="12">
         <v>18.407399999999999</v>
       </c>
@@ -6642,6 +7242,12 @@
       <c r="X105" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="Z105" s="12">
+        <v>18.853400000000001</v>
+      </c>
+      <c r="AA105" s="1">
+        <v>1.4E-2</v>
+      </c>
       <c r="AC105" s="12">
         <v>12.024699999999999</v>
       </c>
@@ -6691,6 +7297,12 @@
       </c>
       <c r="X106" s="1">
         <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Z106" s="12">
+        <v>12.7536</v>
+      </c>
+      <c r="AA106" s="1">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AC106" s="12">
         <v>19.534400000000002</v>

--- a/실험 결과.xlsx
+++ b/실험 결과.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuJeong\Documents\Sequence-Similarity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC852045-3A99-43BF-BE52-0281223C23D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210CD431-897C-4DDC-B897-4972741EC3E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25470" yWindow="345" windowWidth="22185" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="22">
   <si>
     <t>Origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,22 @@
     <t>Item 수 : 10,000 (10,007)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Item 수 : 7,000 (7,002)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item 수 : 15,000 (15,019)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item 수 : 20,000 (20,000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item 수 : 25,000 (20,005)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -150,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -374,13 +390,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +557,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF106"/>
+  <dimension ref="A1:AU109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT7" sqref="AT7:AT106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -824,10 +944,19 @@
     <col min="29" max="29" width="9" style="12"/>
     <col min="30" max="30" width="9" style="1"/>
     <col min="31" max="31" width="9" style="13"/>
-    <col min="32" max="32" width="9.25" style="29" customWidth="1"/>
+    <col min="32" max="32" width="9.25" style="41" customWidth="1"/>
+    <col min="36" max="36" width="9" style="12"/>
+    <col min="37" max="37" width="9" style="1"/>
+    <col min="38" max="38" width="9" style="13"/>
+    <col min="42" max="42" width="9" style="12"/>
+    <col min="43" max="43" width="9" style="1"/>
+    <col min="44" max="44" width="9" style="13"/>
+    <col min="45" max="45" width="9" style="12"/>
+    <col min="46" max="46" width="9" style="1"/>
+    <col min="47" max="47" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -898,9 +1027,43 @@
         <v>1</v>
       </c>
       <c r="AE1" s="23"/>
-      <c r="AF1" s="24"/>
-    </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="10"/>
+    </row>
+    <row r="2" spans="1:47" s="2" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
@@ -951,9 +1114,34 @@
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="19"/>
-      <c r="AF2" s="25"/>
-    </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="11"/>
+    </row>
+    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -993,9 +1181,28 @@
         <v>2</v>
       </c>
       <c r="AE3" s="13"/>
-      <c r="AF3" s="26"/>
-    </row>
-    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="13"/>
+    </row>
+    <row r="4" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1035,9 +1242,28 @@
         <v>14</v>
       </c>
       <c r="AE4" s="13"/>
-      <c r="AF4" s="26"/>
-    </row>
-    <row r="5" spans="1:32" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU4" s="13"/>
+    </row>
+    <row r="5" spans="1:47" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -1077,9 +1303,34 @@
         <v>15</v>
       </c>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="27"/>
-    </row>
-    <row r="6" spans="1:32" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="38"/>
+    </row>
+    <row r="6" spans="1:47" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>29.18985</v>
       </c>
@@ -1152,7 +1403,7 @@
         <v>6</v>
       </c>
       <c r="Z6" s="16">
-        <v>17.095500000000001</v>
+        <v>16.5105</v>
       </c>
       <c r="AA6" s="5">
         <v>1.2E-2</v>
@@ -1169,9 +1420,54 @@
       <c r="AE6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AF6" s="28"/>
-    </row>
-    <row r="7" spans="1:32" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="16">
+        <v>12.540099999999899</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>18.700399999999998</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AL6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>24.713200000000001</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP6" s="16">
+        <v>38.902799999999999</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AR6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS6" s="16">
+        <v>52.3249</v>
+      </c>
+      <c r="AT6" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AU6" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>30.251100000000001</v>
       </c>
@@ -1221,10 +1517,10 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Z7" s="12">
-        <v>12.0646</v>
+        <v>17.250399999999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC7" s="12">
         <v>14.1296</v>
@@ -1232,8 +1528,39 @@
       <c r="AD7" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG7" s="12">
+        <v>12.6676</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI7" s="13"/>
+      <c r="AJ7">
+        <v>20.161300000000001</v>
+      </c>
+      <c r="AK7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM7">
+        <v>33.155000000000001</v>
+      </c>
+      <c r="AN7">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AP7" s="12">
+        <v>46.743499999999997</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS7" s="12">
+        <v>54.2453</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>24.441199999999998</v>
       </c>
@@ -1283,10 +1610,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="Z8" s="12">
-        <v>11.624599999999999</v>
+        <v>14.258599999999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>0.01</v>
       </c>
       <c r="AC8" s="12">
         <v>11.2026</v>
@@ -1294,8 +1621,39 @@
       <c r="AD8" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG8" s="12">
+        <v>14.9535</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AI8" s="13"/>
+      <c r="AJ8">
+        <v>25.6142</v>
+      </c>
+      <c r="AK8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AM8">
+        <v>19.7394</v>
+      </c>
+      <c r="AN8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP8" s="12">
+        <v>32.604999999999997</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS8" s="12">
+        <v>51.7834</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>30.895</v>
       </c>
@@ -1345,10 +1703,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="Z9" s="12">
-        <v>15.224500000000001</v>
+        <v>12.582599999999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AC9" s="12">
         <v>13.852499999999999</v>
@@ -1356,8 +1714,39 @@
       <c r="AD9" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG9" s="12">
+        <v>11.5716</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI9" s="13"/>
+      <c r="AJ9">
+        <v>21.127300000000002</v>
+      </c>
+      <c r="AK9">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM9">
+        <v>19.792400000000001</v>
+      </c>
+      <c r="AN9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP9" s="12">
+        <v>46.012999999999998</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AS9" s="12">
+        <v>54.752299999999998</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>41.552500000000002</v>
       </c>
@@ -1407,10 +1796,10 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="Z10" s="12">
-        <v>22.706299999999999</v>
+        <v>15.4785</v>
       </c>
       <c r="AA10" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC10" s="12">
         <v>17.703399999999998</v>
@@ -1418,8 +1807,39 @@
       <c r="AD10" s="1">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG10" s="12">
+        <v>15.890499999999999</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AI10" s="13"/>
+      <c r="AJ10">
+        <v>18.186399999999999</v>
+      </c>
+      <c r="AK10">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM10">
+        <v>35.726900000000001</v>
+      </c>
+      <c r="AN10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AP10" s="12">
+        <v>49.564500000000002</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS10" s="12">
+        <v>38.462800000000001</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>33.886899999999997</v>
       </c>
@@ -1469,10 +1889,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="Z11" s="12">
-        <v>11.1997</v>
+        <v>13.3156</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AC11" s="12">
         <v>23.0533</v>
@@ -1480,8 +1900,39 @@
       <c r="AD11" s="1">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG11" s="12">
+        <v>17.070399999999999</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AI11" s="13"/>
+      <c r="AJ11">
+        <v>22.754300000000001</v>
+      </c>
+      <c r="AK11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AM11">
+        <v>26.659199999999998</v>
+      </c>
+      <c r="AN11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP11" s="12">
+        <v>46.601599999999998</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS11" s="12">
+        <v>69.221900000000005</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>38.977499999999999</v>
       </c>
@@ -1531,10 +1982,10 @@
         <v>0.01</v>
       </c>
       <c r="Z12" s="12">
-        <v>17.523499999999999</v>
+        <v>11.1257</v>
       </c>
       <c r="AA12" s="1">
-        <v>1.4E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AC12" s="12">
         <v>21.125299999999999</v>
@@ -1542,8 +1993,39 @@
       <c r="AD12" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG12" s="12">
+        <v>13.1516</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI12" s="13"/>
+      <c r="AJ12">
+        <v>14.6815</v>
+      </c>
+      <c r="AK12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM12">
+        <v>17.901399999999999</v>
+      </c>
+      <c r="AN12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP12" s="12">
+        <v>43.078699999999998</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AS12" s="12">
+        <v>53.413400000000003</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>29.8325</v>
       </c>
@@ -1593,10 +2075,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z13" s="12">
-        <v>20.494599999999998</v>
+        <v>24.444299999999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.4E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AC13" s="12">
         <v>13.9026</v>
@@ -1604,8 +2086,39 @@
       <c r="AD13" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG13" s="12">
+        <v>16.609500000000001</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AI13" s="13"/>
+      <c r="AJ13">
+        <v>22.749300000000002</v>
+      </c>
+      <c r="AK13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AM13">
+        <v>19.738399999999999</v>
+      </c>
+      <c r="AN13">
+        <v>0.01</v>
+      </c>
+      <c r="AP13" s="12">
+        <v>52.177399999999999</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AS13" s="12">
+        <v>51.182400000000001</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>30.427099999999999</v>
       </c>
@@ -1655,10 +2168,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Z14" s="12">
-        <v>18.744399999999999</v>
+        <v>16.923500000000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC14" s="12">
         <v>11.9116</v>
@@ -1666,8 +2179,39 @@
       <c r="AD14" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG14" s="12">
+        <v>9.9986999999999995</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI14" s="13"/>
+      <c r="AJ14">
+        <v>15.7555</v>
+      </c>
+      <c r="AK14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM14">
+        <v>32.65</v>
+      </c>
+      <c r="AN14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AP14" s="12">
+        <v>43.098700000000001</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AS14" s="12">
+        <v>55.571300000000001</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>29.947099999999999</v>
       </c>
@@ -1717,10 +2261,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="Z15" s="12">
-        <v>16.197500000000002</v>
+        <v>19.229399999999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.2E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AC15" s="12">
         <v>13.076599999999999</v>
@@ -1728,8 +2272,39 @@
       <c r="AD15" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG15" s="12">
+        <v>11.8347</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI15" s="13"/>
+      <c r="AJ15">
+        <v>21.918299999999999</v>
+      </c>
+      <c r="AK15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM15">
+        <v>22.520299999999999</v>
+      </c>
+      <c r="AN15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AP15" s="12">
+        <v>45.211599999999997</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS15" s="12">
+        <v>64.641999999999996</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>32.1158</v>
       </c>
@@ -1779,10 +2354,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z16" s="12">
-        <v>14.5205</v>
+        <v>25.624199999999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AC16" s="12">
         <v>22.3263</v>
@@ -1790,8 +2365,39 @@
       <c r="AD16" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG16" s="12">
+        <v>16.2072</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AI16" s="13"/>
+      <c r="AJ16">
+        <v>13.3956</v>
+      </c>
+      <c r="AK16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AM16">
+        <v>18.153400000000001</v>
+      </c>
+      <c r="AN16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP16" s="12">
+        <v>29.6571</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS16" s="12">
+        <v>62.811999999999998</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>39.338999999999999</v>
       </c>
@@ -1841,10 +2447,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="Z17" s="12">
-        <v>16.371400000000001</v>
+        <v>15.108499999999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AC17" s="12">
         <v>13.4406</v>
@@ -1852,8 +2458,39 @@
       <c r="AD17" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG17" s="12">
+        <v>16.067499999999999</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AI17" s="13"/>
+      <c r="AJ17">
+        <v>28.021100000000001</v>
+      </c>
+      <c r="AK17">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AM17">
+        <v>25.013200000000001</v>
+      </c>
+      <c r="AN17">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP17" s="12">
+        <v>34.312899999999999</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS17" s="12">
+        <v>56.046300000000002</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>33.5137</v>
       </c>
@@ -1903,10 +2540,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="Z18" s="12">
-        <v>22.5548</v>
+        <v>14.7545</v>
       </c>
       <c r="AA18" s="1">
-        <v>1.6E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AC18" s="12">
         <v>23.400300000000001</v>
@@ -1914,8 +2551,39 @@
       <c r="AD18" s="1">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG18" s="12">
+        <v>12.909599999999999</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI18" s="13"/>
+      <c r="AJ18">
+        <v>24.5732</v>
+      </c>
+      <c r="AK18">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AM18">
+        <v>26.049199999999999</v>
+      </c>
+      <c r="AN18">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP18" s="12">
+        <v>38.259799999999998</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS18" s="12">
+        <v>59.456099999999999</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>36.761299999999999</v>
       </c>
@@ -1965,10 +2633,10 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Z19" s="12">
-        <v>11.2926</v>
+        <v>17.801400000000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC19" s="12">
         <v>21.301300000000001</v>
@@ -1976,8 +2644,39 @@
       <c r="AD19" s="1">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG19" s="12">
+        <v>11.644600000000001</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI19" s="13"/>
+      <c r="AJ19">
+        <v>14.0586</v>
+      </c>
+      <c r="AK19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM19">
+        <v>37.700800000000001</v>
+      </c>
+      <c r="AN19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AP19" s="12">
+        <v>43.413699999999999</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AS19" s="12">
+        <v>49.533499999999997</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>26.060199999999998</v>
       </c>
@@ -2027,10 +2726,10 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="Z20" s="12">
-        <v>22.764299999999999</v>
+        <v>24.767199999999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AC20" s="12">
         <v>19.372399999999999</v>
@@ -2038,8 +2737,39 @@
       <c r="AD20" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG20" s="12">
+        <v>10.8726</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI20" s="13"/>
+      <c r="AJ20">
+        <v>17.561499999999999</v>
+      </c>
+      <c r="AK20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM20">
+        <v>21.473299999999998</v>
+      </c>
+      <c r="AN20">
+        <v>0.01</v>
+      </c>
+      <c r="AP20" s="12">
+        <v>43.724699999999999</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AS20" s="12">
+        <v>55.2393</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>24.0273</v>
       </c>
@@ -2089,7 +2819,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z21" s="12">
-        <v>15.650499999999999</v>
+        <v>15.9815</v>
       </c>
       <c r="AA21" s="1">
         <v>1.0999999999999999E-2</v>
@@ -2100,8 +2830,39 @@
       <c r="AD21" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG21" s="12">
+        <v>10.5307</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI21" s="13"/>
+      <c r="AJ21">
+        <v>21.3353</v>
+      </c>
+      <c r="AK21">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AM21">
+        <v>34.631900000000002</v>
+      </c>
+      <c r="AN21">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AP21" s="12">
+        <v>30.1831</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AS21" s="12">
+        <v>52.078400000000002</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>40.803699999999999</v>
       </c>
@@ -2151,10 +2912,10 @@
         <v>0.01</v>
       </c>
       <c r="Z22" s="12">
-        <v>10.9834</v>
+        <v>23.833200000000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AC22" s="12">
         <v>23.395299999999999</v>
@@ -2162,8 +2923,39 @@
       <c r="AD22" s="1">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG22" s="12">
+        <v>13.509600000000001</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI22" s="13"/>
+      <c r="AJ22">
+        <v>14.935600000000001</v>
+      </c>
+      <c r="AK22">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM22">
+        <v>23.889299999999999</v>
+      </c>
+      <c r="AN22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AP22" s="12">
+        <v>26.283200000000001</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AS22" s="12">
+        <v>69.787800000000004</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>30.7241</v>
       </c>
@@ -2213,10 +3005,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Z23" s="12">
-        <v>23.490300000000001</v>
+        <v>17.558399999999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AC23" s="12">
         <v>26.7532</v>
@@ -2224,8 +3016,39 @@
       <c r="AD23" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG23" s="12">
+        <v>11.2676</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI23" s="13"/>
+      <c r="AJ23">
+        <v>18.605399999999999</v>
+      </c>
+      <c r="AK23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM23">
+        <v>21.0913</v>
+      </c>
+      <c r="AN23">
+        <v>0.01</v>
+      </c>
+      <c r="AP23" s="12">
+        <v>28.493099999999998</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AS23" s="12">
+        <v>45.322600000000001</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>30.824000000000002</v>
       </c>
@@ -2275,10 +3098,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="Z24" s="12">
-        <v>22.313400000000001</v>
+        <v>26.011199999999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>1.4E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AC24" s="12">
         <v>13.2986</v>
@@ -2286,8 +3109,39 @@
       <c r="AD24" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG24" s="12">
+        <v>14.025600000000001</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI24" s="13"/>
+      <c r="AJ24">
+        <v>18.1144</v>
+      </c>
+      <c r="AK24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM24">
+        <v>31.42</v>
+      </c>
+      <c r="AN24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AP24" s="12">
+        <v>30.014099999999999</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AS24" s="12">
+        <v>70.021799999999999</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>22.465299999999999</v>
       </c>
@@ -2337,10 +3191,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z25" s="12">
-        <v>11.7006</v>
+        <v>17.670500000000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC25" s="12">
         <v>18.8704</v>
@@ -2348,8 +3202,39 @@
       <c r="AD25" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG25" s="12">
+        <v>10.897600000000001</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI25" s="13"/>
+      <c r="AJ25">
+        <v>15.4795</v>
+      </c>
+      <c r="AK25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AM25">
+        <v>21.9863</v>
+      </c>
+      <c r="AN25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AP25" s="12">
+        <v>33.823900000000002</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS25" s="12">
+        <v>38.1798</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>32.978999999999999</v>
       </c>
@@ -2399,10 +3284,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Z26" s="12">
-        <v>20.208400000000001</v>
+        <v>12.0916</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.4E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AC26" s="12">
         <v>17.2685</v>
@@ -2410,8 +3295,39 @@
       <c r="AD26" s="1">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG26" s="12">
+        <v>11.759600000000001</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI26" s="13"/>
+      <c r="AJ26">
+        <v>25.9633</v>
+      </c>
+      <c r="AK26">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AM26">
+        <v>23.144300000000001</v>
+      </c>
+      <c r="AN26">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AP26" s="12">
+        <v>46.206600000000002</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS26" s="12">
+        <v>36.407800000000002</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>24.594200000000001</v>
       </c>
@@ -2461,10 +3377,10 @@
         <v>0.01</v>
       </c>
       <c r="Z27" s="12">
-        <v>12.9986</v>
+        <v>13.992599999999999</v>
       </c>
       <c r="AA27" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC27" s="12">
         <v>15.061500000000001</v>
@@ -2472,8 +3388,39 @@
       <c r="AD27" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG27" s="12">
+        <v>9.2936999999999994</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI27" s="13"/>
+      <c r="AJ27">
+        <v>23.564299999999999</v>
+      </c>
+      <c r="AK27">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AM27">
+        <v>26.787199999999999</v>
+      </c>
+      <c r="AN27">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP27" s="12">
+        <v>42.726700000000001</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS27" s="12">
+        <v>58.186199999999999</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>26.231200000000001</v>
       </c>
@@ -2523,10 +3470,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="Z28" s="12">
-        <v>18.138400000000001</v>
+        <v>19.788399999999999</v>
       </c>
       <c r="AA28" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AC28" s="12">
         <v>17.5244</v>
@@ -2534,8 +3481,39 @@
       <c r="AD28" s="1">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG28" s="12">
+        <v>14.2156</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI28" s="13"/>
+      <c r="AJ28">
+        <v>25.241199999999999</v>
+      </c>
+      <c r="AK28">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AM28">
+        <v>25.7072</v>
+      </c>
+      <c r="AN28">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP28" s="12">
+        <v>48.1447</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS28" s="12">
+        <v>70.041799999999995</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>37.473799999999997</v>
       </c>
@@ -2585,10 +3563,10 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Z29" s="12">
-        <v>26.5762</v>
+        <v>23.252600000000001</v>
       </c>
       <c r="AA29" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AC29" s="12">
         <v>20.258400000000002</v>
@@ -2596,8 +3574,39 @@
       <c r="AD29" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG29" s="12">
+        <v>18.913399999999999</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AI29" s="13"/>
+      <c r="AJ29">
+        <v>14.466100000000001</v>
+      </c>
+      <c r="AK29">
+        <v>0.01</v>
+      </c>
+      <c r="AM29">
+        <v>29.714099999999998</v>
+      </c>
+      <c r="AN29">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AP29" s="12">
+        <v>50.249699999999997</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AS29" s="12">
+        <v>61.6081</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>36.4499</v>
       </c>
@@ -2647,10 +3656,10 @@
         <v>1.6E-2</v>
       </c>
       <c r="Z30" s="12">
-        <v>13.7456</v>
+        <v>18.752400000000002</v>
       </c>
       <c r="AA30" s="1">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC30" s="12">
         <v>24.310199999999998</v>
@@ -2658,8 +3667,39 @@
       <c r="AD30" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG30" s="12">
+        <v>11.193300000000001</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI30" s="13"/>
+      <c r="AJ30">
+        <v>20.473400000000002</v>
+      </c>
+      <c r="AK30">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM30">
+        <v>24.260200000000001</v>
+      </c>
+      <c r="AN30">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP30" s="12">
+        <v>36.636899999999997</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS30" s="12">
+        <v>78.193600000000004</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>27.412600000000001</v>
       </c>
@@ -2709,10 +3749,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Z31" s="12">
-        <v>17.151499999999999</v>
+        <v>11.191700000000001</v>
       </c>
       <c r="AA31" s="1">
-        <v>1.2E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AC31" s="12">
         <v>16.983499999999999</v>
@@ -2720,8 +3760,39 @@
       <c r="AD31" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG31" s="12">
+        <v>10.3857</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AI31" s="13"/>
+      <c r="AJ31">
+        <v>12.416600000000001</v>
+      </c>
+      <c r="AK31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AM31">
+        <v>27.928100000000001</v>
+      </c>
+      <c r="AN31">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP31" s="12">
+        <v>33.444000000000003</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS31" s="12">
+        <v>46.403100000000002</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>28.284099999999999</v>
       </c>
@@ -2771,10 +3842,10 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="Z32" s="12">
-        <v>25.199200000000001</v>
+        <v>16.880500000000001</v>
       </c>
       <c r="AA32" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AC32" s="12">
         <v>18.962399999999999</v>
@@ -2782,8 +3853,39 @@
       <c r="AD32" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG32" s="12">
+        <v>12.9696</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI32" s="13"/>
+      <c r="AJ32">
+        <v>25.126200000000001</v>
+      </c>
+      <c r="AK32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AM32">
+        <v>18.7424</v>
+      </c>
+      <c r="AN32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP32" s="12">
+        <v>37.048699999999997</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS32" s="12">
+        <v>41.477699999999999</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>25.2942</v>
       </c>
@@ -2833,10 +3935,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z33" s="12">
-        <v>19.124700000000001</v>
+        <v>13.9686</v>
       </c>
       <c r="AA33" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AC33" s="12">
         <v>17.549399999999999</v>
@@ -2844,8 +3946,39 @@
       <c r="AD33" s="1">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG33" s="12">
+        <v>11.897600000000001</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI33" s="13"/>
+      <c r="AJ33">
+        <v>20.3733</v>
+      </c>
+      <c r="AK33">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM33">
+        <v>26.946200000000001</v>
+      </c>
+      <c r="AN33">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP33" s="12">
+        <v>34.151899999999998</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS33" s="12">
+        <v>55.365299999999998</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>40.339799999999997</v>
       </c>
@@ -2895,10 +4028,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z34" s="12">
-        <v>18.3584</v>
+        <v>24.508199999999999</v>
       </c>
       <c r="AA34" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AC34" s="12">
         <v>21.9893</v>
@@ -2906,8 +4039,39 @@
       <c r="AD34" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG34" s="12">
+        <v>13.201599999999999</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI34" s="13"/>
+      <c r="AJ34">
+        <v>13.2226</v>
+      </c>
+      <c r="AK34">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM34">
+        <v>23.8673</v>
+      </c>
+      <c r="AN34">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AP34" s="12">
+        <v>37.7729</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AS34" s="12">
+        <v>75.555700000000002</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>29.268699999999999</v>
       </c>
@@ -2957,10 +4121,10 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="Z35" s="12">
-        <v>15.4255</v>
+        <v>13.256600000000001</v>
       </c>
       <c r="AA35" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AC35" s="12">
         <v>11.005699999999999</v>
@@ -2968,8 +4132,39 @@
       <c r="AD35" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG35" s="12">
+        <v>18.827400000000001</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AI35" s="13"/>
+      <c r="AJ35">
+        <v>22.275300000000001</v>
+      </c>
+      <c r="AK35">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AM35">
+        <v>22.658300000000001</v>
+      </c>
+      <c r="AN35">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AP35" s="12">
+        <v>51.792400000000001</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AS35" s="12">
+        <v>53.9664</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>27.9392</v>
       </c>
@@ -3019,10 +4214,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z36" s="12">
-        <v>11.105700000000001</v>
+        <v>13.8506</v>
       </c>
       <c r="AA36" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="AC36" s="12">
         <v>20.493300000000001</v>
@@ -3030,8 +4225,39 @@
       <c r="AD36" s="1">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG36" s="12">
+        <v>18.615400000000001</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AI36" s="13"/>
+      <c r="AJ36">
+        <v>19.8964</v>
+      </c>
+      <c r="AK36">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM36">
+        <v>31.486000000000001</v>
+      </c>
+      <c r="AN36">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AP36" s="12">
+        <v>57.411099999999998</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AS36" s="12">
+        <v>43.3217</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>30.232099999999999</v>
       </c>
@@ -3081,10 +4307,10 @@
         <v>1.6E-2</v>
       </c>
       <c r="Z37" s="12">
-        <v>14.6625</v>
+        <v>15.8985</v>
       </c>
       <c r="AA37" s="1">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC37" s="12">
         <v>16.677499999999998</v>
@@ -3092,8 +4318,39 @@
       <c r="AD37" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG37" s="12">
+        <v>12.948600000000001</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI37" s="13"/>
+      <c r="AJ37">
+        <v>23.011299999999999</v>
+      </c>
+      <c r="AK37">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AM37">
+        <v>31.497</v>
+      </c>
+      <c r="AN37">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AP37" s="12">
+        <v>38.508000000000003</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS37" s="12">
+        <v>57.478200000000001</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>23.3033</v>
       </c>
@@ -3143,10 +4400,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z38" s="12">
-        <v>23.671299999999999</v>
+        <v>20.1234</v>
       </c>
       <c r="AA38" s="1">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AC38" s="12">
         <v>16.848400000000002</v>
@@ -3154,8 +4411,39 @@
       <c r="AD38" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG38" s="12">
+        <v>12.412599999999999</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI38" s="13"/>
+      <c r="AJ38">
+        <v>19.964400000000001</v>
+      </c>
+      <c r="AK38">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM38">
+        <v>17.634399999999999</v>
+      </c>
+      <c r="AN38">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AP38" s="12">
+        <v>41.471299999999999</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AS38" s="12">
+        <v>52.281399999999998</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>23.937100000000001</v>
       </c>
@@ -3205,7 +4493,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z39" s="12">
-        <v>14.012600000000001</v>
+        <v>14.6435</v>
       </c>
       <c r="AA39" s="1">
         <v>0.01</v>
@@ -3216,8 +4504,39 @@
       <c r="AD39" s="1">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG39" s="12">
+        <v>11.6256</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI39" s="13"/>
+      <c r="AJ39">
+        <v>21.199400000000001</v>
+      </c>
+      <c r="AK39">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM39">
+        <v>25.145199999999999</v>
+      </c>
+      <c r="AN39">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP39" s="12">
+        <v>48.798499999999997</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AS39" s="12">
+        <v>34.384999999999998</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>19.853400000000001</v>
       </c>
@@ -3267,10 +4586,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z40" s="12">
-        <v>18.0154</v>
+        <v>12.801600000000001</v>
       </c>
       <c r="AA40" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AC40" s="12">
         <v>19.987400000000001</v>
@@ -3278,8 +4597,39 @@
       <c r="AD40" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG40" s="12">
+        <v>11.5756</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI40" s="13"/>
+      <c r="AJ40">
+        <v>25.1172</v>
+      </c>
+      <c r="AK40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AM40">
+        <v>24.684200000000001</v>
+      </c>
+      <c r="AN40">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP40" s="12">
+        <v>31.693000000000001</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AS40" s="12">
+        <v>46.724499999999999</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>32.341999999999999</v>
       </c>
@@ -3329,10 +4679,10 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="Z41" s="12">
-        <v>14.233499999999999</v>
+        <v>11.1317</v>
       </c>
       <c r="AA41" s="1">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AC41" s="12">
         <v>23.337199999999999</v>
@@ -3340,8 +4690,39 @@
       <c r="AD41" s="1">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG41" s="12">
+        <v>18.881399999999999</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AI41" s="13"/>
+      <c r="AJ41">
+        <v>15.7255</v>
+      </c>
+      <c r="AK41">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM41">
+        <v>28.755099999999999</v>
+      </c>
+      <c r="AN41">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AP41" s="12">
+        <v>49.721499999999999</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AS41" s="12">
+        <v>35.4589</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>27.682099999999998</v>
       </c>
@@ -3391,10 +4772,10 @@
         <v>0.01</v>
       </c>
       <c r="Z42" s="12">
-        <v>14.726599999999999</v>
+        <v>17.3155</v>
       </c>
       <c r="AA42" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC42" s="12">
         <v>16.337499999999999</v>
@@ -3402,8 +4783,39 @@
       <c r="AD42" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG42" s="12">
+        <v>17.3765</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AI42" s="13"/>
+      <c r="AJ42">
+        <v>12.6106</v>
+      </c>
+      <c r="AK42">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM42">
+        <v>25.7562</v>
+      </c>
+      <c r="AN42">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP42" s="12">
+        <v>39.5608</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AS42" s="12">
+        <v>80.358500000000006</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>36.872599999999998</v>
       </c>
@@ -3453,10 +4865,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z43" s="12">
-        <v>20.819299999999998</v>
+        <v>23.020299999999999</v>
       </c>
       <c r="AA43" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AC43" s="12">
         <v>13.633599999999999</v>
@@ -3464,8 +4876,39 @@
       <c r="AD43" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG43" s="12">
+        <v>13.0116</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI43" s="13"/>
+      <c r="AJ43">
+        <v>21.162600000000001</v>
+      </c>
+      <c r="AK43">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AM43">
+        <v>25.834199999999999</v>
+      </c>
+      <c r="AN43">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP43" s="12">
+        <v>29.931100000000001</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AS43" s="12">
+        <v>74.525700000000001</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>33.441000000000003</v>
       </c>
@@ -3515,10 +4958,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z44" s="12">
-        <v>13.599600000000001</v>
+        <v>15.8385</v>
       </c>
       <c r="AA44" s="1">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC44" s="12">
         <v>17.663499999999999</v>
@@ -3526,8 +4969,39 @@
       <c r="AD44" s="1">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG44" s="12">
+        <v>11.976599999999999</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI44" s="13"/>
+      <c r="AJ44">
+        <v>13.366</v>
+      </c>
+      <c r="AK44">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM44">
+        <v>26.193200000000001</v>
+      </c>
+      <c r="AN44">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP44" s="12">
+        <v>38.762799999999999</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AS44" s="12">
+        <v>37.822800000000001</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>27.389099999999999</v>
       </c>
@@ -3577,10 +5051,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z45" s="12">
-        <v>17.605499999999999</v>
+        <v>11.9876</v>
       </c>
       <c r="AA45" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AC45" s="12">
         <v>25.668199999999999</v>
@@ -3588,8 +5062,39 @@
       <c r="AD45" s="1">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG45" s="12">
+        <v>12.1716</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI45" s="13"/>
+      <c r="AJ45">
+        <v>14.128500000000001</v>
+      </c>
+      <c r="AK45">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM45">
+        <v>16.484500000000001</v>
+      </c>
+      <c r="AN45">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AP45" s="12">
+        <v>32.712299999999999</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS45" s="12">
+        <v>64.753</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>33.003599999999999</v>
       </c>
@@ -3639,10 +5144,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="Z46" s="12">
-        <v>19.3614</v>
+        <v>13.820600000000001</v>
       </c>
       <c r="AA46" s="1">
-        <v>1.4E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC46" s="12">
         <v>19.1234</v>
@@ -3650,8 +5155,39 @@
       <c r="AD46" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG46" s="12">
+        <v>12.111599999999999</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI46" s="13"/>
+      <c r="AJ46">
+        <v>24.6723</v>
+      </c>
+      <c r="AK46">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AM46">
+        <v>24.289200000000001</v>
+      </c>
+      <c r="AN46">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP46" s="12">
+        <v>39.119799999999998</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AS46" s="12">
+        <v>46.134599999999999</v>
+      </c>
+      <c r="AT46" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>39.094499999999996</v>
       </c>
@@ -3701,10 +5237,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="Z47" s="12">
-        <v>18.7654</v>
+        <v>11.752700000000001</v>
       </c>
       <c r="AA47" s="1">
-        <v>1.2E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AC47" s="12">
         <v>18.791399999999999</v>
@@ -3712,8 +5248,39 @@
       <c r="AD47" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG47" s="12">
+        <v>14.628500000000001</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AI47" s="13"/>
+      <c r="AJ47">
+        <v>18.323399999999999</v>
+      </c>
+      <c r="AK47">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM47">
+        <v>25.9862</v>
+      </c>
+      <c r="AN47">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP47" s="12">
+        <v>34.256</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS47" s="12">
+        <v>46.396599999999999</v>
+      </c>
+      <c r="AT47" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>41.615699999999997</v>
       </c>
@@ -3763,10 +5330,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Z48" s="12">
-        <v>14.6065</v>
+        <v>17.9834</v>
       </c>
       <c r="AA48" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AC48" s="12">
         <v>17.964400000000001</v>
@@ -3774,8 +5341,39 @@
       <c r="AD48" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG48" s="12">
+        <v>11.582700000000001</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI48" s="13"/>
+      <c r="AJ48">
+        <v>19.2744</v>
+      </c>
+      <c r="AK48">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM48">
+        <v>27.0562</v>
+      </c>
+      <c r="AN48">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP48" s="12">
+        <v>34.078000000000003</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AS48" s="12">
+        <v>62.8491</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>27.214200000000002</v>
       </c>
@@ -3825,10 +5423,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z49" s="12">
-        <v>13.5236</v>
+        <v>16.543500000000002</v>
       </c>
       <c r="AA49" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC49" s="12">
         <v>20.509399999999999</v>
@@ -3836,8 +5434,39 @@
       <c r="AD49" s="1">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG49" s="12">
+        <v>13.749599999999999</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI49" s="13"/>
+      <c r="AJ49">
+        <v>18.7164</v>
+      </c>
+      <c r="AK49">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM49">
+        <v>14.8545</v>
+      </c>
+      <c r="AN49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AP49" s="12">
+        <v>52.164400000000001</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AS49" s="12">
+        <v>32.905999999999999</v>
+      </c>
+      <c r="AT49" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>39.7059</v>
       </c>
@@ -3887,10 +5516,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="Z50" s="12">
-        <v>25.089200000000002</v>
+        <v>16.718499999999999</v>
       </c>
       <c r="AA50" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC50" s="12">
         <v>12.7646</v>
@@ -3898,8 +5527,39 @@
       <c r="AD50" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG50" s="12">
+        <v>15.0525</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AI50" s="13"/>
+      <c r="AJ50">
+        <v>19.941700000000001</v>
+      </c>
+      <c r="AK50">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM50">
+        <v>29.6431</v>
+      </c>
+      <c r="AN50">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AP50" s="12">
+        <v>37.6068</v>
+      </c>
+      <c r="AQ50" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS50" s="12">
+        <v>48.744599999999998</v>
+      </c>
+      <c r="AT50" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>34.4099</v>
       </c>
@@ -3949,10 +5609,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z51" s="12">
-        <v>23.6708</v>
+        <v>15.2255</v>
       </c>
       <c r="AA51" s="1">
-        <v>1.6E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC51" s="12">
         <v>12.0146</v>
@@ -3960,8 +5620,39 @@
       <c r="AD51" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG51" s="12">
+        <v>10.9376</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI51" s="13"/>
+      <c r="AJ51">
+        <v>28.167100000000001</v>
+      </c>
+      <c r="AK51">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AM51">
+        <v>22.154299999999999</v>
+      </c>
+      <c r="AN51">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AP51" s="12">
+        <v>36.383899999999997</v>
+      </c>
+      <c r="AQ51" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS51" s="12">
+        <v>40.4298</v>
+      </c>
+      <c r="AT51" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>28.4665</v>
       </c>
@@ -4011,10 +5702,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z52" s="12">
-        <v>24.8842</v>
+        <v>17.0214</v>
       </c>
       <c r="AA52" s="1">
-        <v>1.6E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC52" s="12">
         <v>20.613399999999999</v>
@@ -4022,8 +5713,39 @@
       <c r="AD52" s="1">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG52" s="12">
+        <v>14.628500000000001</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AI52" s="13"/>
+      <c r="AJ52">
+        <v>23.232500000000002</v>
+      </c>
+      <c r="AK52">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AM52">
+        <v>30.4331</v>
+      </c>
+      <c r="AN52">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AP52" s="12">
+        <v>35.838900000000002</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS52" s="12">
+        <v>50.300400000000003</v>
+      </c>
+      <c r="AT52" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>29.639099999999999</v>
       </c>
@@ -4073,7 +5795,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z53" s="12">
-        <v>22.586300000000001</v>
+        <v>22.234300000000001</v>
       </c>
       <c r="AA53" s="1">
         <v>1.6E-2</v>
@@ -4084,8 +5806,39 @@
       <c r="AD53" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG53" s="12">
+        <v>16.122499999999999</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AI53" s="13"/>
+      <c r="AJ53">
+        <v>28.360099999999999</v>
+      </c>
+      <c r="AK53">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AM53">
+        <v>33.607999999999997</v>
+      </c>
+      <c r="AN53">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AP53" s="12">
+        <v>35.050899999999999</v>
+      </c>
+      <c r="AQ53" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AS53" s="12">
+        <v>36.408900000000003</v>
+      </c>
+      <c r="AT53" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>31.317</v>
       </c>
@@ -4135,10 +5888,10 @@
         <v>1.6E-2</v>
       </c>
       <c r="Z54" s="12">
-        <v>16.287500000000001</v>
+        <v>25.563199999999998</v>
       </c>
       <c r="AA54" s="1">
-        <v>0.01</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AC54" s="12">
         <v>24.290199999999999</v>
@@ -4146,8 +5899,39 @@
       <c r="AD54" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG54" s="12">
+        <v>11.403600000000001</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI54" s="13"/>
+      <c r="AJ54">
+        <v>16.145499999999998</v>
+      </c>
+      <c r="AK54">
+        <v>0.01</v>
+      </c>
+      <c r="AM54">
+        <v>28.452100000000002</v>
+      </c>
+      <c r="AN54">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AP54" s="12">
+        <v>42.095700000000001</v>
+      </c>
+      <c r="AQ54" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AS54" s="12">
+        <v>55.147599999999997</v>
+      </c>
+      <c r="AT54" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>25.353200000000001</v>
       </c>
@@ -4197,10 +5981,10 @@
         <v>0.01</v>
       </c>
       <c r="Z55" s="12">
-        <v>12.082599999999999</v>
+        <v>19.134399999999999</v>
       </c>
       <c r="AA55" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AC55" s="12">
         <v>16.7835</v>
@@ -4208,8 +5992,39 @@
       <c r="AD55" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG55" s="12">
+        <v>8.0056999999999992</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AI55" s="13"/>
+      <c r="AJ55">
+        <v>22.882300000000001</v>
+      </c>
+      <c r="AK55">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM55">
+        <v>35.730899999999998</v>
+      </c>
+      <c r="AN55">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AP55" s="12">
+        <v>27.339200000000002</v>
+      </c>
+      <c r="AQ55" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AS55" s="12">
+        <v>54.075299999999999</v>
+      </c>
+      <c r="AT55" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>34.488799999999998</v>
       </c>
@@ -4259,7 +6074,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z56" s="12">
-        <v>18.907399999999999</v>
+        <v>16.543500000000002</v>
       </c>
       <c r="AA56" s="1">
         <v>1.2999999999999999E-2</v>
@@ -4270,8 +6085,39 @@
       <c r="AD56" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG56" s="12">
+        <v>13.1296</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI56" s="13"/>
+      <c r="AJ56">
+        <v>17.792400000000001</v>
+      </c>
+      <c r="AK56">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM56">
+        <v>31.453099999999999</v>
+      </c>
+      <c r="AN56">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AP56" s="12">
+        <v>49.274700000000003</v>
+      </c>
+      <c r="AQ56" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AS56" s="12">
+        <v>44.836599999999997</v>
+      </c>
+      <c r="AT56" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>26.373200000000001</v>
       </c>
@@ -4321,10 +6167,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Z57" s="12">
-        <v>17.8855</v>
+        <v>25.403199999999998</v>
       </c>
       <c r="AA57" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AC57" s="12">
         <v>12.4016</v>
@@ -4332,8 +6178,39 @@
       <c r="AD57" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG57" s="12">
+        <v>14.050599999999999</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AI57" s="13"/>
+      <c r="AJ57">
+        <v>20.824400000000001</v>
+      </c>
+      <c r="AK57">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM57">
+        <v>29.934100000000001</v>
+      </c>
+      <c r="AN57">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AP57" s="12">
+        <v>46.511499999999998</v>
+      </c>
+      <c r="AQ57" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AS57" s="12">
+        <v>50.316499999999998</v>
+      </c>
+      <c r="AT57" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>24.693200000000001</v>
       </c>
@@ -4383,10 +6260,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="Z58" s="12">
-        <v>19.575399999999998</v>
+        <v>17.380500000000001</v>
       </c>
       <c r="AA58" s="1">
-        <v>1.2E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AC58" s="12">
         <v>18.231400000000001</v>
@@ -4394,8 +6271,39 @@
       <c r="AD58" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG58" s="12">
+        <v>16.3705</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AI58" s="13"/>
+      <c r="AJ58">
+        <v>19.135100000000001</v>
+      </c>
+      <c r="AK58">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM58">
+        <v>17.5945</v>
+      </c>
+      <c r="AN58">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP58" s="12">
+        <v>41.976700000000001</v>
+      </c>
+      <c r="AQ58" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AS58" s="12">
+        <v>73.923699999999997</v>
+      </c>
+      <c r="AT58" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>23.726299999999998</v>
       </c>
@@ -4445,10 +6353,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="Z59" s="12">
-        <v>15.1785</v>
+        <v>15.874499999999999</v>
       </c>
       <c r="AA59" s="1">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC59" s="12">
         <v>13.008599999999999</v>
@@ -4456,8 +6364,39 @@
       <c r="AD59" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG59" s="12">
+        <v>13.176600000000001</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI59" s="13"/>
+      <c r="AJ59">
+        <v>17.9879</v>
+      </c>
+      <c r="AK59">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM59">
+        <v>24.424199999999999</v>
+      </c>
+      <c r="AN59">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP59" s="12">
+        <v>45.9116</v>
+      </c>
+      <c r="AQ59" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AS59" s="12">
+        <v>52.439399999999999</v>
+      </c>
+      <c r="AT59" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>29.8691</v>
       </c>
@@ -4507,10 +6446,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="Z60" s="12">
-        <v>16.005500000000001</v>
+        <v>9.8346999999999998</v>
       </c>
       <c r="AA60" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AC60" s="12">
         <v>21.767399999999999</v>
@@ -4518,8 +6457,39 @@
       <c r="AD60" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG60" s="12">
+        <v>14.920500000000001</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AI60" s="13"/>
+      <c r="AJ60">
+        <v>29.450099999999999</v>
+      </c>
+      <c r="AK60">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AM60">
+        <v>29.7561</v>
+      </c>
+      <c r="AN60">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AP60" s="12">
+        <v>53.122399999999999</v>
+      </c>
+      <c r="AQ60" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AS60" s="12">
+        <v>66.064800000000005</v>
+      </c>
+      <c r="AT60" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>29.693100000000001</v>
       </c>
@@ -4569,10 +6539,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Z61" s="12">
-        <v>22.081299999999999</v>
+        <v>17.819400000000002</v>
       </c>
       <c r="AA61" s="1">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AC61" s="12">
         <v>13.5946</v>
@@ -4580,8 +6550,39 @@
       <c r="AD61" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG61" s="12">
+        <v>11.342700000000001</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI61" s="13"/>
+      <c r="AJ61">
+        <v>21.1479</v>
+      </c>
+      <c r="AK61">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM61">
+        <v>20.668399999999998</v>
+      </c>
+      <c r="AN61">
+        <v>0.01</v>
+      </c>
+      <c r="AP61" s="12">
+        <v>34.094999999999999</v>
+      </c>
+      <c r="AQ61" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS61" s="12">
+        <v>47.358600000000003</v>
+      </c>
+      <c r="AT61" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>29.198599999999999</v>
       </c>
@@ -4631,10 +6632,10 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="Z62" s="12">
-        <v>21.109300000000001</v>
+        <v>22.0093</v>
       </c>
       <c r="AA62" s="1">
-        <v>1.4E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AC62" s="12">
         <v>16.726500000000001</v>
@@ -4642,8 +6643,39 @@
       <c r="AD62" s="1">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG62" s="12">
+        <v>18.136399999999998</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AI62" s="13"/>
+      <c r="AJ62">
+        <v>20.529399999999999</v>
+      </c>
+      <c r="AK62">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM62">
+        <v>31.312999999999999</v>
+      </c>
+      <c r="AN62">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AP62" s="12">
+        <v>37.729799999999997</v>
+      </c>
+      <c r="AQ62" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AS62" s="12">
+        <v>46.264600000000002</v>
+      </c>
+      <c r="AT62" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>25.996300000000002</v>
       </c>
@@ -4693,10 +6725,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z63" s="12">
-        <v>18.188400000000001</v>
+        <v>21.078399999999998</v>
       </c>
       <c r="AA63" s="1">
-        <v>1.2E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AC63" s="12">
         <v>23.383199999999999</v>
@@ -4704,8 +6736,39 @@
       <c r="AD63" s="1">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG63" s="12">
+        <v>16.611499999999999</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AI63" s="13"/>
+      <c r="AJ63">
+        <v>18.598400000000002</v>
+      </c>
+      <c r="AK63">
+        <v>0.01</v>
+      </c>
+      <c r="AM63">
+        <v>20.507300000000001</v>
+      </c>
+      <c r="AN63">
+        <v>0.01</v>
+      </c>
+      <c r="AP63" s="12">
+        <v>30.132100000000001</v>
+      </c>
+      <c r="AQ63" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AS63" s="12">
+        <v>63.066000000000003</v>
+      </c>
+      <c r="AT63" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>31.404</v>
       </c>
@@ -4755,10 +6818,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="Z64" s="12">
-        <v>19.164400000000001</v>
+        <v>11.0007</v>
       </c>
       <c r="AA64" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AC64" s="12">
         <v>19.116399999999999</v>
@@ -4766,8 +6829,39 @@
       <c r="AD64" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG64" s="12">
+        <v>10.909700000000001</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI64" s="13"/>
+      <c r="AJ64">
+        <v>23.328199999999999</v>
+      </c>
+      <c r="AK64">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM64">
+        <v>26.754200000000001</v>
+      </c>
+      <c r="AN64">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP64" s="12">
+        <v>58.842300000000002</v>
+      </c>
+      <c r="AQ64" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AS64" s="12">
+        <v>81.192499999999995</v>
+      </c>
+      <c r="AT64" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>26.4772</v>
       </c>
@@ -4817,7 +6911,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="Z65" s="12">
-        <v>18.436399999999999</v>
+        <v>16.477499999999999</v>
       </c>
       <c r="AA65" s="1">
         <v>1.2E-2</v>
@@ -4828,8 +6922,39 @@
       <c r="AD65" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG65" s="12">
+        <v>12.7676</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI65" s="13"/>
+      <c r="AJ65">
+        <v>15.1355</v>
+      </c>
+      <c r="AK65">
+        <v>0.01</v>
+      </c>
+      <c r="AM65">
+        <v>25.924199999999999</v>
+      </c>
+      <c r="AN65">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP65" s="12">
+        <v>46.639600000000002</v>
+      </c>
+      <c r="AQ65" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AS65" s="12">
+        <v>38.599800000000002</v>
+      </c>
+      <c r="AT65" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>25.1662</v>
       </c>
@@ -4879,10 +7004,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="Z66" s="12">
-        <v>17.9434</v>
+        <v>20.199300000000001</v>
       </c>
       <c r="AA66" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AC66" s="12">
         <v>20.8003</v>
@@ -4890,8 +7015,39 @@
       <c r="AD66" s="1">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG66" s="12">
+        <v>10.742699999999999</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI66" s="13"/>
+      <c r="AJ66">
+        <v>23.8613</v>
+      </c>
+      <c r="AK66">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AM66">
+        <v>18.703399999999998</v>
+      </c>
+      <c r="AN66">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AP66" s="12">
+        <v>41.3917</v>
+      </c>
+      <c r="AQ66" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS66" s="12">
+        <v>54.896299999999997</v>
+      </c>
+      <c r="AT66" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>27.999199999999998</v>
       </c>
@@ -4941,7 +7097,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="Z67" s="12">
-        <v>14.4316</v>
+        <v>13.2216</v>
       </c>
       <c r="AA67" s="1">
         <v>0.01</v>
@@ -4952,8 +7108,39 @@
       <c r="AD67" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG67" s="12">
+        <v>14.973599999999999</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AI67" s="13"/>
+      <c r="AJ67">
+        <v>17.238499999999998</v>
+      </c>
+      <c r="AK67">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM67">
+        <v>25.8062</v>
+      </c>
+      <c r="AN67">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP67" s="12">
+        <v>43.7986</v>
+      </c>
+      <c r="AQ67" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AS67" s="12">
+        <v>54.088299999999997</v>
+      </c>
+      <c r="AT67" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>32.112000000000002</v>
       </c>
@@ -5003,10 +7190,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="Z68" s="12">
-        <v>20.6434</v>
+        <v>13.5326</v>
       </c>
       <c r="AA68" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC68" s="12">
         <v>13.050599999999999</v>
@@ -5014,8 +7201,39 @@
       <c r="AD68" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG68" s="12">
+        <v>9.6407000000000007</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI68" s="13"/>
+      <c r="AJ68">
+        <v>13.8666</v>
+      </c>
+      <c r="AK68">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM68">
+        <v>31.521000000000001</v>
+      </c>
+      <c r="AN68">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AP68" s="12">
+        <v>28.941099999999999</v>
+      </c>
+      <c r="AQ68" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AS68" s="12">
+        <v>53.028399999999998</v>
+      </c>
+      <c r="AT68" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>28.612100000000002</v>
       </c>
@@ -5065,10 +7283,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z69" s="12">
-        <v>15.4285</v>
+        <v>15.7355</v>
       </c>
       <c r="AA69" s="1">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC69" s="12">
         <v>17.395499999999998</v>
@@ -5076,8 +7294,39 @@
       <c r="AD69" s="1">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG69" s="12">
+        <v>19.6584</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AI69" s="13"/>
+      <c r="AJ69">
+        <v>18.208400000000001</v>
+      </c>
+      <c r="AK69">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM69">
+        <v>21.9953</v>
+      </c>
+      <c r="AN69">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AP69" s="12">
+        <v>51.512099999999997</v>
+      </c>
+      <c r="AQ69" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AS69" s="12">
+        <v>78.084599999999995</v>
+      </c>
+      <c r="AT69" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>24.516200000000001</v>
       </c>
@@ -5127,10 +7376,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z70" s="12">
-        <v>14.1066</v>
+        <v>16.160499999999999</v>
       </c>
       <c r="AA70" s="1">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC70" s="12">
         <v>19.116399999999999</v>
@@ -5138,8 +7387,39 @@
       <c r="AD70" s="1">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG70" s="12">
+        <v>12.7356</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI70" s="13"/>
+      <c r="AJ70">
+        <v>13.4886</v>
+      </c>
+      <c r="AK70">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM70">
+        <v>23.322299999999998</v>
+      </c>
+      <c r="AN70">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AP70" s="12">
+        <v>43.296700000000001</v>
+      </c>
+      <c r="AQ70" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AS70" s="12">
+        <v>48.252499999999998</v>
+      </c>
+      <c r="AT70" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>31.026</v>
       </c>
@@ -5189,10 +7469,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="Z71" s="12">
-        <v>16.702500000000001</v>
+        <v>15.8325</v>
       </c>
       <c r="AA71" s="1">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC71" s="12">
         <v>13.6976</v>
@@ -5200,8 +7480,39 @@
       <c r="AD71" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG71" s="12">
+        <v>11.557600000000001</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI71" s="13"/>
+      <c r="AJ71">
+        <v>21.458300000000001</v>
+      </c>
+      <c r="AK71">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM71">
+        <v>31.271999999999998</v>
+      </c>
+      <c r="AN71">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AP71" s="12">
+        <v>25.726199999999999</v>
+      </c>
+      <c r="AQ71" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AS71" s="12">
+        <v>77.637600000000006</v>
+      </c>
+      <c r="AT71" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <v>34.0959</v>
       </c>
@@ -5251,10 +7562,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z72" s="12">
-        <v>15.8005</v>
+        <v>12.201599999999999</v>
       </c>
       <c r="AA72" s="1">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AC72" s="12">
         <v>12.6586</v>
@@ -5262,8 +7573,39 @@
       <c r="AD72" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG72" s="12">
+        <v>11.877599999999999</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI72" s="13"/>
+      <c r="AJ72">
+        <v>13.2616</v>
+      </c>
+      <c r="AK72">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AM72">
+        <v>15.5205</v>
+      </c>
+      <c r="AN72">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AP72" s="12">
+        <v>48.275500000000001</v>
+      </c>
+      <c r="AQ72" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS72" s="12">
+        <v>74.738699999999994</v>
+      </c>
+      <c r="AT72" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>26.755099999999999</v>
       </c>
@@ -5313,10 +7655,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z73" s="12">
-        <v>18.910699999999999</v>
+        <v>10.9307</v>
       </c>
       <c r="AA73" s="1">
-        <v>1.2E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AC73" s="12">
         <v>16.479500000000002</v>
@@ -5324,8 +7666,39 @@
       <c r="AD73" s="1">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG73" s="12">
+        <v>10.9857</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI73" s="13"/>
+      <c r="AJ73">
+        <v>28.705100000000002</v>
+      </c>
+      <c r="AK73">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AM73">
+        <v>22.8643</v>
+      </c>
+      <c r="AN73">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AP73" s="12">
+        <v>38.985799999999998</v>
+      </c>
+      <c r="AQ73" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS73" s="12">
+        <v>40.8827</v>
+      </c>
+      <c r="AT73" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>19.3294</v>
       </c>
@@ -5375,10 +7748,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z74" s="12">
-        <v>18.023399999999999</v>
+        <v>11.1807</v>
       </c>
       <c r="AA74" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AC74" s="12">
         <v>15.0215</v>
@@ -5386,8 +7759,39 @@
       <c r="AD74" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG74" s="12">
+        <v>8.3527000000000005</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AI74" s="13"/>
+      <c r="AJ74">
+        <v>24.039300000000001</v>
+      </c>
+      <c r="AK74">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AM74">
+        <v>34.305999999999997</v>
+      </c>
+      <c r="AN74">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AP74" s="12">
+        <v>39.692799999999998</v>
+      </c>
+      <c r="AQ74" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AS74" s="12">
+        <v>38.889800000000001</v>
+      </c>
+      <c r="AT74" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <v>29.761099999999999</v>
       </c>
@@ -5437,10 +7841,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z75" s="12">
-        <v>12.9536</v>
+        <v>18.340399999999999</v>
       </c>
       <c r="AA75" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AC75" s="12">
         <v>13.9696</v>
@@ -5448,8 +7852,39 @@
       <c r="AD75" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG75" s="12">
+        <v>10.4117</v>
+      </c>
+      <c r="AH75" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI75" s="13"/>
+      <c r="AJ75">
+        <v>14.7605</v>
+      </c>
+      <c r="AK75">
+        <v>0.01</v>
+      </c>
+      <c r="AM75">
+        <v>18.554400000000001</v>
+      </c>
+      <c r="AN75">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP75" s="12">
+        <v>23.7303</v>
+      </c>
+      <c r="AQ75" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AS75" s="12">
+        <v>81.024500000000003</v>
+      </c>
+      <c r="AT75" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
         <v>29.181100000000001</v>
       </c>
@@ -5499,10 +7934,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z76" s="12">
-        <v>23.019300000000001</v>
+        <v>16.548500000000001</v>
       </c>
       <c r="AA76" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AC76" s="12">
         <v>16.4285</v>
@@ -5510,8 +7945,39 @@
       <c r="AD76" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG76" s="12">
+        <v>11.9396</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI76" s="13"/>
+      <c r="AJ76">
+        <v>21.604299999999999</v>
+      </c>
+      <c r="AK76">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AM76">
+        <v>25.7272</v>
+      </c>
+      <c r="AN76">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP76" s="12">
+        <v>38.5518</v>
+      </c>
+      <c r="AQ76" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS76" s="12">
+        <v>43.684600000000003</v>
+      </c>
+      <c r="AT76" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
         <v>31.995000000000001</v>
       </c>
@@ -5561,10 +8027,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z77" s="12">
-        <v>26.673200000000001</v>
+        <v>19.5794</v>
       </c>
       <c r="AA77" s="1">
-        <v>1.9E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AC77" s="12">
         <v>15.7925</v>
@@ -5572,8 +8038,39 @@
       <c r="AD77" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG77" s="12">
+        <v>11.5176</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI77" s="13"/>
+      <c r="AJ77">
+        <v>15.1225</v>
+      </c>
+      <c r="AK77">
+        <v>0.01</v>
+      </c>
+      <c r="AM77">
+        <v>17.534400000000002</v>
+      </c>
+      <c r="AN77">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AP77" s="12">
+        <v>40.349699999999999</v>
+      </c>
+      <c r="AQ77" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS77" s="12">
+        <v>45.541600000000003</v>
+      </c>
+      <c r="AT77" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>31.956</v>
       </c>
@@ -5623,10 +8120,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z78" s="12">
-        <v>22.436299999999999</v>
+        <v>23.125299999999999</v>
       </c>
       <c r="AA78" s="1">
-        <v>1.6E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AC78" s="12">
         <v>22.241299999999999</v>
@@ -5634,8 +8131,39 @@
       <c r="AD78" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG78" s="12">
+        <v>13.9565</v>
+      </c>
+      <c r="AH78" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI78" s="13"/>
+      <c r="AJ78">
+        <v>17.863499999999998</v>
+      </c>
+      <c r="AK78">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM78">
+        <v>23.493300000000001</v>
+      </c>
+      <c r="AN78">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AP78" s="12">
+        <v>44.306600000000003</v>
+      </c>
+      <c r="AQ78" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AS78" s="12">
+        <v>48.145499999999998</v>
+      </c>
+      <c r="AT78" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>31.88</v>
       </c>
@@ -5685,10 +8213,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Z79" s="12">
-        <v>14.422599999999999</v>
+        <v>22.095300000000002</v>
       </c>
       <c r="AA79" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AC79" s="12">
         <v>20.343299999999999</v>
@@ -5696,8 +8224,39 @@
       <c r="AD79" s="1">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG79" s="12">
+        <v>16.465499999999999</v>
+      </c>
+      <c r="AH79" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AI79" s="13"/>
+      <c r="AJ79">
+        <v>14.3066</v>
+      </c>
+      <c r="AK79">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM79">
+        <v>20.856400000000001</v>
+      </c>
+      <c r="AN79">
+        <v>0.01</v>
+      </c>
+      <c r="AP79" s="12">
+        <v>35.569899999999997</v>
+      </c>
+      <c r="AQ79" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS79" s="12">
+        <v>64.822000000000003</v>
+      </c>
+      <c r="AT79" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>29.618099999999998</v>
       </c>
@@ -5747,10 +8306,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="Z80" s="12">
-        <v>22.235299999999999</v>
+        <v>14.2166</v>
       </c>
       <c r="AA80" s="1">
-        <v>1.4E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC80" s="12">
         <v>11.6546</v>
@@ -5758,8 +8317,39 @@
       <c r="AD80" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG80" s="12">
+        <v>10.550599999999999</v>
+      </c>
+      <c r="AH80" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI80" s="13"/>
+      <c r="AJ80">
+        <v>20.822299999999998</v>
+      </c>
+      <c r="AK80">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM80">
+        <v>30.021999999999998</v>
+      </c>
+      <c r="AN80">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AP80" s="12">
+        <v>34.709899999999998</v>
+      </c>
+      <c r="AQ80" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS80" s="12">
+        <v>44.072600000000001</v>
+      </c>
+      <c r="AT80" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>25.6892</v>
       </c>
@@ -5809,10 +8399,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Z81" s="12">
-        <v>18.433399999999999</v>
+        <v>17.567499999999999</v>
       </c>
       <c r="AA81" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC81" s="12">
         <v>12.285600000000001</v>
@@ -5820,8 +8410,39 @@
       <c r="AD81" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG81" s="12">
+        <v>17.6815</v>
+      </c>
+      <c r="AH81" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AI81" s="13"/>
+      <c r="AJ81">
+        <v>18.6814</v>
+      </c>
+      <c r="AK81">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM81">
+        <v>19.6844</v>
+      </c>
+      <c r="AN81">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP81" s="12">
+        <v>31.866800000000001</v>
+      </c>
+      <c r="AQ81" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS81" s="12">
+        <v>41.297699999999999</v>
+      </c>
+      <c r="AT81" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>29.621099999999998</v>
       </c>
@@ -5871,10 +8492,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z82" s="12">
-        <v>18.702400000000001</v>
+        <v>12.019600000000001</v>
       </c>
       <c r="AA82" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AC82" s="12">
         <v>16.8535</v>
@@ -5882,8 +8503,39 @@
       <c r="AD82" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG82" s="12">
+        <v>10.797700000000001</v>
+      </c>
+      <c r="AH82" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI82" s="13"/>
+      <c r="AJ82">
+        <v>18.555399999999999</v>
+      </c>
+      <c r="AK82">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AM82">
+        <v>21.318300000000001</v>
+      </c>
+      <c r="AN82">
+        <v>0.01</v>
+      </c>
+      <c r="AP82" s="12">
+        <v>33.484000000000002</v>
+      </c>
+      <c r="AQ82" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS82" s="12">
+        <v>44.236600000000003</v>
+      </c>
+      <c r="AT82" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>20.6113</v>
       </c>
@@ -5933,10 +8585,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z83" s="12">
-        <v>19.688400000000001</v>
+        <v>14.0915</v>
       </c>
       <c r="AA83" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AC83" s="12">
         <v>18.1584</v>
@@ -5944,8 +8596,39 @@
       <c r="AD83" s="1">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG83" s="12">
+        <v>10.4177</v>
+      </c>
+      <c r="AH83" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI83" s="13"/>
+      <c r="AJ83">
+        <v>18.1694</v>
+      </c>
+      <c r="AK83">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM83">
+        <v>22.124300000000002</v>
+      </c>
+      <c r="AN83">
+        <v>0.01</v>
+      </c>
+      <c r="AP83" s="12">
+        <v>35.759900000000002</v>
+      </c>
+      <c r="AQ83" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS83" s="12">
+        <v>57.3202</v>
+      </c>
+      <c r="AT83" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <v>28.443100000000001</v>
       </c>
@@ -5995,10 +8678,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z84" s="12">
-        <v>17.0395</v>
+        <v>11.146699999999999</v>
       </c>
       <c r="AA84" s="1">
-        <v>1.2E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AC84" s="12">
         <v>15.6615</v>
@@ -6006,8 +8689,39 @@
       <c r="AD84" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG84" s="12">
+        <v>13.307600000000001</v>
+      </c>
+      <c r="AH84" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI84" s="13"/>
+      <c r="AJ84">
+        <v>20.988299999999999</v>
+      </c>
+      <c r="AK84">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM84">
+        <v>35.920900000000003</v>
+      </c>
+      <c r="AN84">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AP84" s="12">
+        <v>59.933100000000003</v>
+      </c>
+      <c r="AQ84" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AS84" s="12">
+        <v>51.306399999999996</v>
+      </c>
+      <c r="AT84" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <v>38.816800000000001</v>
       </c>
@@ -6057,10 +8771,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="Z85" s="12">
-        <v>20.333400000000001</v>
+        <v>20.959299999999999</v>
       </c>
       <c r="AA85" s="1">
-        <v>1.4E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AC85" s="12">
         <v>15.336499999999999</v>
@@ -6068,8 +8782,39 @@
       <c r="AD85" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG85" s="12">
+        <v>14.006600000000001</v>
+      </c>
+      <c r="AH85" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AI85" s="13"/>
+      <c r="AJ85">
+        <v>19.8154</v>
+      </c>
+      <c r="AK85">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM85">
+        <v>23.064299999999999</v>
+      </c>
+      <c r="AN85">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AP85" s="12">
+        <v>36.553800000000003</v>
+      </c>
+      <c r="AQ85" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS85" s="12">
+        <v>52.368400000000001</v>
+      </c>
+      <c r="AT85" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>24.959199999999999</v>
       </c>
@@ -6119,10 +8864,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z86" s="12">
-        <v>14.7928</v>
+        <v>17.233499999999999</v>
       </c>
       <c r="AA86" s="1">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC86" s="12">
         <v>20.112400000000001</v>
@@ -6130,8 +8875,39 @@
       <c r="AD86" s="1">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG86" s="12">
+        <v>13.326599999999999</v>
+      </c>
+      <c r="AH86" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI86" s="13"/>
+      <c r="AJ86">
+        <v>15.1305</v>
+      </c>
+      <c r="AK86">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM86">
+        <v>15.8485</v>
+      </c>
+      <c r="AN86">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AP86" s="12">
+        <v>46.119700000000002</v>
+      </c>
+      <c r="AQ86" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS86" s="12">
+        <v>35.386899999999997</v>
+      </c>
+      <c r="AT86" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>22.3673</v>
       </c>
@@ -6181,10 +8957,10 @@
         <v>0.01</v>
       </c>
       <c r="Z87" s="12">
-        <v>14.5966</v>
+        <v>15.605499999999999</v>
       </c>
       <c r="AA87" s="1">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC87" s="12">
         <v>12.400600000000001</v>
@@ -6192,8 +8968,39 @@
       <c r="AD87" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG87" s="12">
+        <v>11.1576</v>
+      </c>
+      <c r="AH87" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI87" s="13"/>
+      <c r="AJ87">
+        <v>17.869399999999999</v>
+      </c>
+      <c r="AK87">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM87">
+        <v>18.374400000000001</v>
+      </c>
+      <c r="AN87">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP87" s="12">
+        <v>43.162700000000001</v>
+      </c>
+      <c r="AQ87" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AS87" s="12">
+        <v>35.108899999999998</v>
+      </c>
+      <c r="AT87" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="88" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>29.760100000000001</v>
       </c>
@@ -6243,10 +9050,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="Z88" s="12">
-        <v>14.0336</v>
+        <v>15.9925</v>
       </c>
       <c r="AA88" s="1">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC88" s="12">
         <v>23.4833</v>
@@ -6254,8 +9061,39 @@
       <c r="AD88" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG88" s="12">
+        <v>15.561500000000001</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AI88" s="13"/>
+      <c r="AJ88">
+        <v>26.316199999999998</v>
+      </c>
+      <c r="AK88">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AM88">
+        <v>18.602399999999999</v>
+      </c>
+      <c r="AN88">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP88" s="12">
+        <v>30.901</v>
+      </c>
+      <c r="AQ88" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AS88" s="12">
+        <v>47.0535</v>
+      </c>
+      <c r="AT88" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>20.346299999999999</v>
       </c>
@@ -6305,10 +9143,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="Z89" s="12">
-        <v>12.3216</v>
+        <v>21.480399999999999</v>
       </c>
       <c r="AA89" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AC89" s="12">
         <v>14.085599999999999</v>
@@ -6316,8 +9154,39 @@
       <c r="AD89" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG89" s="12">
+        <v>19.432400000000001</v>
+      </c>
+      <c r="AH89" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AI89" s="13"/>
+      <c r="AJ89">
+        <v>24.7362</v>
+      </c>
+      <c r="AK89">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AM89">
+        <v>25.804200000000002</v>
+      </c>
+      <c r="AN89">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP89" s="12">
+        <v>49.268500000000003</v>
+      </c>
+      <c r="AQ89" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS89" s="12">
+        <v>66.477900000000005</v>
+      </c>
+      <c r="AT89" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
         <v>22.868300000000001</v>
       </c>
@@ -6367,10 +9236,10 @@
         <v>0.01</v>
       </c>
       <c r="Z90" s="12">
-        <v>16.747499999999999</v>
+        <v>18.8704</v>
       </c>
       <c r="AA90" s="1">
-        <v>1.2E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AC90" s="12">
         <v>15.1465</v>
@@ -6378,8 +9247,39 @@
       <c r="AD90" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG90" s="12">
+        <v>10.717700000000001</v>
+      </c>
+      <c r="AH90" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI90" s="13"/>
+      <c r="AJ90">
+        <v>15.435499999999999</v>
+      </c>
+      <c r="AK90">
+        <v>0.01</v>
+      </c>
+      <c r="AM90">
+        <v>23.124300000000002</v>
+      </c>
+      <c r="AN90">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AP90" s="12">
+        <v>54.5383</v>
+      </c>
+      <c r="AQ90" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AS90" s="12">
+        <v>71.818700000000007</v>
+      </c>
+      <c r="AT90" s="1">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>25.839200000000002</v>
       </c>
@@ -6429,10 +9329,10 @@
         <v>0.01</v>
       </c>
       <c r="Z91" s="12">
-        <v>15.371499999999999</v>
+        <v>14.1045</v>
       </c>
       <c r="AA91" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AC91" s="12">
         <v>23.313300000000002</v>
@@ -6440,8 +9340,39 @@
       <c r="AD91" s="1">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG91" s="12">
+        <v>9.6477000000000004</v>
+      </c>
+      <c r="AH91" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AI91" s="13"/>
+      <c r="AJ91">
+        <v>15.2715</v>
+      </c>
+      <c r="AK91">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM91">
+        <v>20.084399999999999</v>
+      </c>
+      <c r="AN91">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP91" s="12">
+        <v>47.4495</v>
+      </c>
+      <c r="AQ91" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AS91" s="12">
+        <v>39.3628</v>
+      </c>
+      <c r="AT91" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="92" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>26.5472</v>
       </c>
@@ -6491,10 +9422,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z92" s="12">
-        <v>20.343399999999999</v>
+        <v>12.740600000000001</v>
       </c>
       <c r="AA92" s="1">
-        <v>1.4E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AC92" s="12">
         <v>23.577200000000001</v>
@@ -6502,8 +9433,39 @@
       <c r="AD92" s="1">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG92" s="12">
+        <v>11.1107</v>
+      </c>
+      <c r="AH92" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI92" s="13"/>
+      <c r="AJ92">
+        <v>14.4735</v>
+      </c>
+      <c r="AK92">
+        <v>0.01</v>
+      </c>
+      <c r="AM92">
+        <v>31.788</v>
+      </c>
+      <c r="AN92">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AP92" s="12">
+        <v>35.171900000000001</v>
+      </c>
+      <c r="AQ92" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS92" s="12">
+        <v>63.397199999999998</v>
+      </c>
+      <c r="AT92" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>33.477899999999998</v>
       </c>
@@ -6553,10 +9515,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="Z93" s="12">
-        <v>10.7006</v>
+        <v>22.022300000000001</v>
       </c>
       <c r="AA93" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AC93" s="12">
         <v>15.413500000000001</v>
@@ -6564,8 +9526,39 @@
       <c r="AD93" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG93" s="12">
+        <v>14.352600000000001</v>
+      </c>
+      <c r="AH93" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AI93" s="13"/>
+      <c r="AJ93">
+        <v>13.611599999999999</v>
+      </c>
+      <c r="AK93">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM93">
+        <v>19.7104</v>
+      </c>
+      <c r="AN93">
+        <v>0.01</v>
+      </c>
+      <c r="AP93" s="12">
+        <v>58.386200000000002</v>
+      </c>
+      <c r="AQ93" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AS93" s="12">
+        <v>42.986600000000003</v>
+      </c>
+      <c r="AT93" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>22.097300000000001</v>
       </c>
@@ -6615,7 +9608,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="Z94" s="12">
-        <v>19.7334</v>
+        <v>19.798400000000001</v>
       </c>
       <c r="AA94" s="1">
         <v>1.4999999999999999E-2</v>
@@ -6626,8 +9619,39 @@
       <c r="AD94" s="1">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG94" s="12">
+        <v>12.6996</v>
+      </c>
+      <c r="AH94" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI94" s="13"/>
+      <c r="AJ94">
+        <v>23.692299999999999</v>
+      </c>
+      <c r="AK94">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AM94">
+        <v>24.7422</v>
+      </c>
+      <c r="AN94">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP94" s="12">
+        <v>38.819800000000001</v>
+      </c>
+      <c r="AQ94" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AS94" s="12">
+        <v>43.954599999999999</v>
+      </c>
+      <c r="AT94" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>20.099399999999999</v>
       </c>
@@ -6677,10 +9701,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="Z95" s="12">
-        <v>15.695499999999999</v>
+        <v>17.4574</v>
       </c>
       <c r="AA95" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AC95" s="12">
         <v>18.642399999999999</v>
@@ -6688,8 +9712,39 @@
       <c r="AD95" s="1">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG95" s="12">
+        <v>11.9976</v>
+      </c>
+      <c r="AH95" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AI95" s="13"/>
+      <c r="AJ95">
+        <v>17.118500000000001</v>
+      </c>
+      <c r="AK95">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM95">
+        <v>21.839300000000001</v>
+      </c>
+      <c r="AN95">
+        <v>0.01</v>
+      </c>
+      <c r="AP95" s="12">
+        <v>36.047899999999998</v>
+      </c>
+      <c r="AQ95" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS95" s="12">
+        <v>68.816900000000004</v>
+      </c>
+      <c r="AT95" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>35.982900000000001</v>
       </c>
@@ -6739,10 +9794,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z96" s="12">
-        <v>9.9466999999999999</v>
+        <v>23.327300000000001</v>
       </c>
       <c r="AA96" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AC96" s="12">
         <v>20.299399999999999</v>
@@ -6750,8 +9805,39 @@
       <c r="AD96" s="1">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG96" s="12">
+        <v>9.2927</v>
+      </c>
+      <c r="AH96" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI96" s="13"/>
+      <c r="AJ96">
+        <v>14.402100000000001</v>
+      </c>
+      <c r="AK96">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM96">
+        <v>27.190100000000001</v>
+      </c>
+      <c r="AN96">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AP96" s="12">
+        <v>37.450899999999997</v>
+      </c>
+      <c r="AQ96" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS96" s="12">
+        <v>56.5702</v>
+      </c>
+      <c r="AT96" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>22.272300000000001</v>
       </c>
@@ -6795,10 +9881,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z97" s="12">
-        <v>15.8485</v>
+        <v>15.070499999999999</v>
       </c>
       <c r="AA97" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC97" s="12">
         <v>15.939500000000001</v>
@@ -6806,8 +9892,39 @@
       <c r="AD97" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG97" s="12">
+        <v>11.4336</v>
+      </c>
+      <c r="AH97" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI97" s="13"/>
+      <c r="AJ97">
+        <v>18.714400000000001</v>
+      </c>
+      <c r="AK97">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM97">
+        <v>19.604399999999998</v>
+      </c>
+      <c r="AN97">
+        <v>0.01</v>
+      </c>
+      <c r="AP97" s="12">
+        <v>37.343800000000002</v>
+      </c>
+      <c r="AQ97" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS97" s="12">
+        <v>41.660699999999999</v>
+      </c>
+      <c r="AT97" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>27.460100000000001</v>
       </c>
@@ -6851,10 +9968,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z98" s="12">
-        <v>14.182600000000001</v>
+        <v>21.853300000000001</v>
       </c>
       <c r="AA98" s="1">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AC98" s="12">
         <v>26.6082</v>
@@ -6862,8 +9979,39 @@
       <c r="AD98" s="1">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG98" s="12">
+        <v>11.5496</v>
+      </c>
+      <c r="AH98" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI98" s="13"/>
+      <c r="AJ98">
+        <v>14.7555</v>
+      </c>
+      <c r="AK98">
+        <v>0.01</v>
+      </c>
+      <c r="AM98">
+        <v>23.247299999999999</v>
+      </c>
+      <c r="AN98">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP98" s="12">
+        <v>37.456200000000003</v>
+      </c>
+      <c r="AQ98" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS98" s="12">
+        <v>54.180300000000003</v>
+      </c>
+      <c r="AT98" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>29.0581</v>
       </c>
@@ -6907,10 +10055,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z99" s="12">
-        <v>23.0383</v>
+        <v>15.7685</v>
       </c>
       <c r="AA99" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC99" s="12">
         <v>16.4755</v>
@@ -6918,8 +10066,39 @@
       <c r="AD99" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG99" s="12">
+        <v>15.7325</v>
+      </c>
+      <c r="AH99" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AI99" s="13"/>
+      <c r="AJ99">
+        <v>18.686399999999999</v>
+      </c>
+      <c r="AK99">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AM99">
+        <v>17.561499999999999</v>
+      </c>
+      <c r="AN99">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AP99" s="12">
+        <v>34.890900000000002</v>
+      </c>
+      <c r="AQ99" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AS99" s="12">
+        <v>50.997399999999999</v>
+      </c>
+      <c r="AT99" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>24.394200000000001</v>
       </c>
@@ -6963,10 +10142,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z100" s="12">
-        <v>14.1915</v>
+        <v>16.3185</v>
       </c>
       <c r="AA100" s="1">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AC100" s="12">
         <v>20.282399999999999</v>
@@ -6974,8 +10153,39 @@
       <c r="AD100" s="1">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG100" s="12">
+        <v>11.0327</v>
+      </c>
+      <c r="AH100" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI100" s="13"/>
+      <c r="AJ100">
+        <v>14.7316</v>
+      </c>
+      <c r="AK100">
+        <v>0.01</v>
+      </c>
+      <c r="AM100">
+        <v>29.650099999999998</v>
+      </c>
+      <c r="AN100">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AP100" s="12">
+        <v>48.256500000000003</v>
+      </c>
+      <c r="AQ100" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS100" s="12">
+        <v>44.2256</v>
+      </c>
+      <c r="AT100" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>23.1953</v>
       </c>
@@ -7019,10 +10229,10 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Z101" s="12">
-        <v>14.3005</v>
+        <v>14.9945</v>
       </c>
       <c r="AA101" s="1">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC101" s="12">
         <v>25.461200000000002</v>
@@ -7030,8 +10240,39 @@
       <c r="AD101" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG101" s="12">
+        <v>11.5566</v>
+      </c>
+      <c r="AH101" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AI101" s="13"/>
+      <c r="AJ101">
+        <v>21.836300000000001</v>
+      </c>
+      <c r="AK101">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AM101">
+        <v>25.533200000000001</v>
+      </c>
+      <c r="AN101">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP101" s="12">
+        <v>37.913899999999998</v>
+      </c>
+      <c r="AQ101" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AS101" s="12">
+        <v>56.972200000000001</v>
+      </c>
+      <c r="AT101" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>30.7041</v>
       </c>
@@ -7075,10 +10316,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="Z102" s="12">
-        <v>14.9975</v>
+        <v>16.272500000000001</v>
       </c>
       <c r="AA102" s="1">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC102" s="12">
         <v>20.238399999999999</v>
@@ -7086,8 +10327,39 @@
       <c r="AD102" s="1">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG102" s="12">
+        <v>13.0566</v>
+      </c>
+      <c r="AH102" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AI102" s="13"/>
+      <c r="AJ102">
+        <v>21.6693</v>
+      </c>
+      <c r="AK102">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AM102">
+        <v>24.815200000000001</v>
+      </c>
+      <c r="AN102">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP102" s="12">
+        <v>34.21</v>
+      </c>
+      <c r="AQ102" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="AS102" s="12">
+        <v>50.723399999999998</v>
+      </c>
+      <c r="AT102" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>23.6983</v>
       </c>
@@ -7131,10 +10403,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="Z103" s="12">
-        <v>17.368400000000001</v>
+        <v>15.4975</v>
       </c>
       <c r="AA103" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AC103" s="12">
         <v>23.854299999999999</v>
@@ -7142,8 +10414,39 @@
       <c r="AD103" s="1">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG103" s="12">
+        <v>16.334499999999998</v>
+      </c>
+      <c r="AH103" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AI103" s="13"/>
+      <c r="AJ103">
+        <v>14.704499999999999</v>
+      </c>
+      <c r="AK103">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AM103">
+        <v>15.576499999999999</v>
+      </c>
+      <c r="AN103">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AP103" s="12">
+        <v>43.807600000000001</v>
+      </c>
+      <c r="AQ103" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AS103" s="12">
+        <v>49.146500000000003</v>
+      </c>
+      <c r="AT103" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>22.1633</v>
       </c>
@@ -7187,7 +10490,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="Z104" s="12">
-        <v>14.237500000000001</v>
+        <v>15.1455</v>
       </c>
       <c r="AA104" s="1">
         <v>1.0999999999999999E-2</v>
@@ -7198,8 +10501,39 @@
       <c r="AD104" s="1">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG104" s="12">
+        <v>11.886699999999999</v>
+      </c>
+      <c r="AH104" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI104" s="13"/>
+      <c r="AJ104">
+        <v>17.590499999999999</v>
+      </c>
+      <c r="AK104">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM104">
+        <v>27.027100000000001</v>
+      </c>
+      <c r="AN104">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP104" s="12">
+        <v>55.998199999999997</v>
+      </c>
+      <c r="AQ104" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AS104" s="12">
+        <v>54.1843</v>
+      </c>
+      <c r="AT104" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>23.914300000000001</v>
       </c>
@@ -7243,10 +10577,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Z105" s="12">
-        <v>18.853400000000001</v>
+        <v>17.295500000000001</v>
       </c>
       <c r="AA105" s="1">
-        <v>1.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC105" s="12">
         <v>12.024699999999999</v>
@@ -7254,8 +10588,39 @@
       <c r="AD105" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AG105" s="12">
+        <v>9.3617000000000008</v>
+      </c>
+      <c r="AH105" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AI105" s="13"/>
+      <c r="AJ105">
+        <v>16.461500000000001</v>
+      </c>
+      <c r="AK105">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM105">
+        <v>25.0062</v>
+      </c>
+      <c r="AN105">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AP105" s="12">
+        <v>44.815600000000003</v>
+      </c>
+      <c r="AQ105" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS105" s="12">
+        <v>68.603800000000007</v>
+      </c>
+      <c r="AT105" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <v>21.231300000000001</v>
       </c>
@@ -7299,10 +10664,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Z106" s="12">
-        <v>12.7536</v>
+        <v>17.3795</v>
       </c>
       <c r="AA106" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AC106" s="12">
         <v>19.534400000000002</v>
@@ -7310,6 +10675,58 @@
       <c r="AD106" s="1">
         <v>1.4E-2</v>
       </c>
+      <c r="AG106" s="12">
+        <v>11.435600000000001</v>
+      </c>
+      <c r="AH106" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AI106" s="13"/>
+      <c r="AJ106">
+        <v>17.177499999999998</v>
+      </c>
+      <c r="AK106">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM106">
+        <v>18.846399999999999</v>
+      </c>
+      <c r="AN106">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AP106" s="12">
+        <v>25.911200000000001</v>
+      </c>
+      <c r="AQ106" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AS106" s="12">
+        <v>41.491700000000002</v>
+      </c>
+      <c r="AT106" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="107" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AG107" s="12"/>
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="13"/>
+      <c r="AJ107"/>
+      <c r="AK107"/>
+    </row>
+    <row r="108" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AG108" s="12"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="13"/>
+      <c r="AJ108"/>
+      <c r="AK108"/>
+    </row>
+    <row r="109" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="AG109" s="12"/>
+      <c r="AH109" s="1"/>
+      <c r="AI109" s="13"/>
+      <c r="AJ109"/>
+      <c r="AK109"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
